--- a/cms_ssd_extract_sql/mosaic/import_raw/SSD Table Structure - Partners.xlsx
+++ b/cms_ssd_extract_sql/mosaic/import_raw/SSD Table Structure - Partners.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27618"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eastsussex-my.sharepoint.com/personal/robert_harrison_eastsussex_gov_uk/Documents/ssd_fileshare_external/essex_mosaic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3832" documentId="13_ncr:1_{ABD7BD49-1D70-425B-917E-0B19A60AD30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2C6EA9C-7A83-4BE4-A529-418682FF7AD4}"/>
+  <xr:revisionPtr revIDLastSave="3846" documentId="13_ncr:1_{ABD7BD49-1D70-425B-917E-0B19A60AD30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F450D889-334B-4EF4-A707-3D3C6588347A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C753A1B3-31BE-45C9-ABE8-5A08422410A8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{C753A1B3-31BE-45C9-ABE8-5A08422410A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Items" sheetId="3" r:id="rId1"/>
-    <sheet name="Notes on form answers in Mosaic" sheetId="4" r:id="rId2"/>
-    <sheet name="dtypes_and_size_jan24" sheetId="5" state="hidden" r:id="rId3"/>
-    <sheet name="dtypes_and_size_nov23" sheetId="6" state="hidden" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="Notes on form answers in Mosaic" sheetId="4" r:id="rId3"/>
+    <sheet name="dtypes_and_size_jan24" sheetId="5" state="hidden" r:id="rId4"/>
+    <sheet name="dtypes_and_size_nov23" sheetId="6" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Items'!$A$2:$AP$353</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$I$352</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -176,8 +178,40 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Robert Harrison</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{5477BF13-049A-4424-AB9A-F0BAC4B91341}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Robert Harrison:
+Clarification on 
+Estimated Dev Overheads 
+for each table/object. 
+MOSAIC
+Time overheads for doing both the mapping and the SQL. We have gone with a Fibonacci story point estimate in hrs*. 
+e.g. a single source table into a single ssd table, or single join relations we've found take roughly 2/3hrs, incl. those with combined _json fields. 
+Note:
+*We have changed this from the original Bronze/Silver/Gold range previously suggested. </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7138" uniqueCount="2143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9103" uniqueCount="2143">
   <si>
     <t>Statutory returns filters</t>
   </si>
@@ -11915,6 +11949,15 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -11944,15 +11987,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -11961,7 +11995,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 9" xfId="1" xr:uid="{7F1C4278-D7C0-441A-A881-F4367CF0151B}"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="24">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11989,6 +12023,106 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12466,9 +12600,9 @@
   </sheetPr>
   <dimension ref="A1:AP364"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="Y10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z12" sqref="Z12"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="O341" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z2" sqref="Z2:Z353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -12500,42 +12634,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="8" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A1" s="756" t="s">
+      <c r="A1" s="759" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="756"/>
-      <c r="C1" s="756"/>
-      <c r="D1" s="756"/>
-      <c r="E1" s="756"/>
-      <c r="F1" s="756"/>
-      <c r="G1" s="756"/>
-      <c r="H1" s="756"/>
-      <c r="I1" s="756"/>
-      <c r="J1" s="756"/>
-      <c r="K1" s="756"/>
-      <c r="L1" s="756"/>
-      <c r="M1" s="756"/>
-      <c r="N1" s="756"/>
-      <c r="O1" s="756"/>
-      <c r="P1" s="756"/>
-      <c r="Q1" s="756"/>
-      <c r="R1" s="756"/>
-      <c r="S1" s="756"/>
-      <c r="T1" s="756"/>
-      <c r="U1" s="757"/>
-      <c r="V1" s="758" t="s">
+      <c r="B1" s="759"/>
+      <c r="C1" s="759"/>
+      <c r="D1" s="759"/>
+      <c r="E1" s="759"/>
+      <c r="F1" s="759"/>
+      <c r="G1" s="759"/>
+      <c r="H1" s="759"/>
+      <c r="I1" s="759"/>
+      <c r="J1" s="759"/>
+      <c r="K1" s="759"/>
+      <c r="L1" s="759"/>
+      <c r="M1" s="759"/>
+      <c r="N1" s="759"/>
+      <c r="O1" s="759"/>
+      <c r="P1" s="759"/>
+      <c r="Q1" s="759"/>
+      <c r="R1" s="759"/>
+      <c r="S1" s="759"/>
+      <c r="T1" s="759"/>
+      <c r="U1" s="760"/>
+      <c r="V1" s="761" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="759"/>
-      <c r="X1" s="759"/>
-      <c r="Y1" s="759"/>
-      <c r="Z1" s="759"/>
-      <c r="AA1" s="760"/>
-      <c r="AB1" s="763" t="s">
+      <c r="W1" s="762"/>
+      <c r="X1" s="762"/>
+      <c r="Y1" s="762"/>
+      <c r="Z1" s="762"/>
+      <c r="AA1" s="763"/>
+      <c r="AB1" s="766" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="764"/>
-      <c r="AD1" s="765"/>
+      <c r="AC1" s="767"/>
+      <c r="AD1" s="768"/>
       <c r="AF1" s="755"/>
       <c r="AG1" s="755"/>
       <c r="AH1" s="755" t="s">
@@ -12547,10 +12681,10 @@
       <c r="AL1" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="AM1" s="761" t="s">
+      <c r="AM1" s="764" t="s">
         <v>5</v>
       </c>
-      <c r="AN1" s="762"/>
+      <c r="AN1" s="765"/>
       <c r="AO1" s="16"/>
       <c r="AP1" s="17" t="s">
         <v>6</v>
@@ -13568,7 +13702,7 @@
       <c r="Y12" s="560">
         <v>1</v>
       </c>
-      <c r="Z12" s="768" t="s">
+      <c r="Z12" s="758" t="s">
         <v>127</v>
       </c>
       <c r="AA12" s="176" t="s">
@@ -14699,7 +14833,7 @@
       <c r="Y26" s="574">
         <v>15</v>
       </c>
-      <c r="Z26" s="766" t="s">
+      <c r="Z26" s="756" t="s">
         <v>235</v>
       </c>
       <c r="AA26" s="177" t="s">
@@ -40096,7 +40230,7 @@
       <c r="Y348" s="560">
         <v>48</v>
       </c>
-      <c r="Z348" s="767" t="s">
+      <c r="Z348" s="757" t="s">
         <v>2110</v>
       </c>
       <c r="AA348" s="175" t="s">
@@ -40589,47 +40723,47 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="V212 V1:V2 V4:V16 V18:V46 V48:V61 V194:V200 V164:V191 V202:V210 V214:V1048576 V63:V162">
-    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W63:W64 Z63:AA64 AG64:AH64 A2:U1048576">
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z348:Z1048576 Z2 Z10:Z16 Z18:Z46 Z48:Z61 Z63:Z147 Z194:Z200 Z164:Z191 Z202:Z212 Z214:Z341 Z149:Z162">
-    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH63 AJ63:AK64 AM63:AO64">
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="20" priority="10" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",AH63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS63:AS64">
-    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z342:Z347">
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG63">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",AG63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI64">
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",AI64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V211:W211">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",V211)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:Y2">
-    <cfRule type="duplicateValues" dxfId="4" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK219:AK227">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -40638,6 +40772,7899 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8A9FBB-8097-4275-8311-4F3AE1EC77A7}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I352"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A345" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="34" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="45.75">
+      <c r="A1" s="552" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="553" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="137" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="138" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="139" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="140" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="141" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="271" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" hidden="1">
+      <c r="A2" s="555" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="556" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="346"/>
+      <c r="D2" s="347"/>
+      <c r="E2" s="348" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="348" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="349"/>
+      <c r="H2" s="350"/>
+      <c r="I2" s="351" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30.75" hidden="1">
+      <c r="A3" s="557" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="560" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="118">
+        <v>5</v>
+      </c>
+      <c r="D3" s="131" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="120" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="121" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="272"/>
+    </row>
+    <row r="4" spans="1:9" ht="30.75" hidden="1">
+      <c r="A4" s="561" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="560" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="78"/>
+      <c r="D4" s="131" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="122" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="123" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="134" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="273"/>
+    </row>
+    <row r="5" spans="1:9" ht="30.75" hidden="1">
+      <c r="A5" s="561" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="560" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="78"/>
+      <c r="D5" s="131" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="122"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="123" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="134" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="273"/>
+    </row>
+    <row r="6" spans="1:9" ht="45.75" hidden="1">
+      <c r="A6" s="561" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="560" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="78"/>
+      <c r="D6" s="131" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="122" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="123" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="134" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="273"/>
+    </row>
+    <row r="7" spans="1:9" ht="30.75" hidden="1">
+      <c r="A7" s="561" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="560" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="78"/>
+      <c r="D7" s="131" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="122" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="123" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="134" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="273"/>
+    </row>
+    <row r="8" spans="1:9" ht="121.5" hidden="1">
+      <c r="A8" s="561" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="560" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="78"/>
+      <c r="D8" s="131" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="122" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="123" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="134" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="273"/>
+    </row>
+    <row r="9" spans="1:9" ht="121.5" hidden="1">
+      <c r="A9" s="563" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="564" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="213"/>
+      <c r="D9" s="131" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="215" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="216" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="217" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" s="218" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="274"/>
+    </row>
+    <row r="10" spans="1:9" ht="60.75" hidden="1">
+      <c r="A10" s="561" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="562" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="78"/>
+      <c r="D10" s="131" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="122" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="123" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="134" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="273"/>
+    </row>
+    <row r="11" spans="1:9" ht="60.75" hidden="1">
+      <c r="A11" s="561" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="758" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="78"/>
+      <c r="D11" s="131" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="122"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="123" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="134" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="273"/>
+    </row>
+    <row r="12" spans="1:9" ht="76.5" hidden="1">
+      <c r="A12" s="561" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="562" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="78"/>
+      <c r="D12" s="131" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="122" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" s="123" t="s">
+        <v>139</v>
+      </c>
+      <c r="H12" s="134" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="273"/>
+    </row>
+    <row r="13" spans="1:9" ht="30.75" hidden="1">
+      <c r="A13" s="561" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="562" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="78"/>
+      <c r="D13" s="131" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="122" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="123" t="s">
+        <v>146</v>
+      </c>
+      <c r="H13" s="134" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="273"/>
+    </row>
+    <row r="14" spans="1:9" ht="60.75" hidden="1">
+      <c r="A14" s="561" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="562" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="78"/>
+      <c r="D14" s="131" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="122" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" s="150" t="s">
+        <v>154</v>
+      </c>
+      <c r="H14" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="273"/>
+    </row>
+    <row r="15" spans="1:9" ht="30.75" hidden="1">
+      <c r="A15" s="568" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="569" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="151"/>
+      <c r="D15" s="131" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="153" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" s="154" t="s">
+        <v>162</v>
+      </c>
+      <c r="H15" s="155" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="275"/>
+    </row>
+    <row r="16" spans="1:9" hidden="1">
+      <c r="A16" s="571" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="572" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="367"/>
+      <c r="D16" s="368"/>
+      <c r="E16" s="369"/>
+      <c r="F16" s="370"/>
+      <c r="G16" s="371"/>
+      <c r="H16" s="372"/>
+      <c r="I16" s="351" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="183" hidden="1">
+      <c r="A17" s="557" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="558" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="118">
+        <v>3</v>
+      </c>
+      <c r="D17" s="131" t="s">
+        <v>173</v>
+      </c>
+      <c r="E17" s="157" t="s">
+        <v>174</v>
+      </c>
+      <c r="F17" s="158" t="s">
+        <v>175</v>
+      </c>
+      <c r="G17" s="159" t="s">
+        <v>176</v>
+      </c>
+      <c r="H17" s="160"/>
+      <c r="I17" s="272"/>
+    </row>
+    <row r="18" spans="1:9" ht="60.75" hidden="1">
+      <c r="A18" s="568" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" s="569" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" s="151"/>
+      <c r="D18" s="131" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" s="162" t="s">
+        <v>181</v>
+      </c>
+      <c r="F18" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="G18" s="163" t="s">
+        <v>183</v>
+      </c>
+      <c r="H18" s="164"/>
+      <c r="I18" s="275"/>
+    </row>
+    <row r="19" spans="1:9" ht="76.5" hidden="1">
+      <c r="A19" s="557" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" s="558" t="s">
+        <v>187</v>
+      </c>
+      <c r="C19" s="118">
+        <v>3</v>
+      </c>
+      <c r="D19" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="E19" s="157" t="s">
+        <v>191</v>
+      </c>
+      <c r="F19" s="158" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19" s="121" t="s">
+        <v>193</v>
+      </c>
+      <c r="H19" s="160"/>
+      <c r="I19" s="272"/>
+    </row>
+    <row r="20" spans="1:9" ht="381.75" hidden="1">
+      <c r="A20" s="557" t="s">
+        <v>194</v>
+      </c>
+      <c r="B20" s="558" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="78"/>
+      <c r="D20" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" s="124" t="s">
+        <v>198</v>
+      </c>
+      <c r="F20" s="53" t="s">
+        <v>199</v>
+      </c>
+      <c r="G20" s="123" t="s">
+        <v>200</v>
+      </c>
+      <c r="H20" s="134" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" s="273" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="60.75" hidden="1">
+      <c r="A21" s="561" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" s="562" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" s="78"/>
+      <c r="D21" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="E21" s="124" t="s">
+        <v>206</v>
+      </c>
+      <c r="F21" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="G21" s="123" t="s">
+        <v>208</v>
+      </c>
+      <c r="H21" s="134" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="273"/>
+    </row>
+    <row r="22" spans="1:9" ht="76.5" hidden="1">
+      <c r="A22" s="561" t="s">
+        <v>209</v>
+      </c>
+      <c r="B22" s="562" t="s">
+        <v>210</v>
+      </c>
+      <c r="C22" s="78"/>
+      <c r="D22" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="E22" s="124" t="s">
+        <v>213</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="G22" s="123" t="s">
+        <v>215</v>
+      </c>
+      <c r="H22" s="134" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" s="273"/>
+    </row>
+    <row r="23" spans="1:9" ht="60.75" hidden="1">
+      <c r="A23" s="561" t="s">
+        <v>217</v>
+      </c>
+      <c r="B23" s="562" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" s="78"/>
+      <c r="D23" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="E23" s="124" t="s">
+        <v>221</v>
+      </c>
+      <c r="F23" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="G23" s="123" t="s">
+        <v>223</v>
+      </c>
+      <c r="H23" s="134" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" s="273" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="76.5" hidden="1">
+      <c r="A24" s="561" t="s">
+        <v>225</v>
+      </c>
+      <c r="B24" s="562" t="s">
+        <v>226</v>
+      </c>
+      <c r="C24" s="78"/>
+      <c r="D24" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="E24" s="124" t="s">
+        <v>229</v>
+      </c>
+      <c r="F24" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="G24" s="123" t="s">
+        <v>231</v>
+      </c>
+      <c r="H24" s="134" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" s="273" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="45.75" hidden="1">
+      <c r="A25" s="568" t="s">
+        <v>234</v>
+      </c>
+      <c r="B25" s="756" t="s">
+        <v>235</v>
+      </c>
+      <c r="C25" s="151"/>
+      <c r="D25" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="E25" s="162" t="s">
+        <v>238</v>
+      </c>
+      <c r="F25" s="57" t="s">
+        <v>239</v>
+      </c>
+      <c r="G25" s="163" t="s">
+        <v>240</v>
+      </c>
+      <c r="H25" s="164" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="275" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30.75" hidden="1">
+      <c r="A26" s="557" t="s">
+        <v>242</v>
+      </c>
+      <c r="B26" s="558" t="s">
+        <v>244</v>
+      </c>
+      <c r="C26" s="118">
+        <v>3</v>
+      </c>
+      <c r="D26" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="E26" s="149" t="s">
+        <v>246</v>
+      </c>
+      <c r="F26" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="G26" s="121" t="s">
+        <v>248</v>
+      </c>
+      <c r="H26" s="133"/>
+      <c r="I26" s="272"/>
+    </row>
+    <row r="27" spans="1:9" ht="30.75" hidden="1">
+      <c r="A27" s="561" t="s">
+        <v>249</v>
+      </c>
+      <c r="B27" s="562" t="s">
+        <v>250</v>
+      </c>
+      <c r="C27" s="78"/>
+      <c r="D27" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="E27" s="125" t="s">
+        <v>252</v>
+      </c>
+      <c r="F27" s="80" t="s">
+        <v>253</v>
+      </c>
+      <c r="G27" s="123" t="s">
+        <v>248</v>
+      </c>
+      <c r="H27" s="135"/>
+      <c r="I27" s="273"/>
+    </row>
+    <row r="28" spans="1:9" ht="106.5" hidden="1">
+      <c r="A28" s="568" t="s">
+        <v>254</v>
+      </c>
+      <c r="B28" s="569" t="s">
+        <v>255</v>
+      </c>
+      <c r="C28" s="151"/>
+      <c r="D28" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="E28" s="162" t="s">
+        <v>258</v>
+      </c>
+      <c r="F28" s="57" t="s">
+        <v>259</v>
+      </c>
+      <c r="G28" s="163" t="s">
+        <v>260</v>
+      </c>
+      <c r="H28" s="164"/>
+      <c r="I28" s="275"/>
+    </row>
+    <row r="29" spans="1:9" hidden="1">
+      <c r="A29" s="557" t="s">
+        <v>261</v>
+      </c>
+      <c r="B29" s="558" t="s">
+        <v>263</v>
+      </c>
+      <c r="C29" s="118">
+        <v>1</v>
+      </c>
+      <c r="D29" s="131" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="120" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="121" t="s">
+        <v>122</v>
+      </c>
+      <c r="H29" s="133" t="s">
+        <v>66</v>
+      </c>
+      <c r="I29" s="272"/>
+    </row>
+    <row r="30" spans="1:9" hidden="1">
+      <c r="A30" s="561" t="s">
+        <v>265</v>
+      </c>
+      <c r="B30" s="562" t="s">
+        <v>266</v>
+      </c>
+      <c r="C30" s="78"/>
+      <c r="D30" s="132" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="122" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="123" t="s">
+        <v>122</v>
+      </c>
+      <c r="H30" s="135"/>
+      <c r="I30" s="273"/>
+    </row>
+    <row r="31" spans="1:9" hidden="1">
+      <c r="A31" s="561" t="s">
+        <v>268</v>
+      </c>
+      <c r="B31" s="562" t="s">
+        <v>269</v>
+      </c>
+      <c r="C31" s="78"/>
+      <c r="D31" s="132" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="122" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" s="123" t="s">
+        <v>122</v>
+      </c>
+      <c r="H31" s="134" t="s">
+        <v>66</v>
+      </c>
+      <c r="I31" s="273" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" hidden="1">
+      <c r="A32" s="561" t="s">
+        <v>274</v>
+      </c>
+      <c r="B32" s="562" t="s">
+        <v>275</v>
+      </c>
+      <c r="C32" s="78"/>
+      <c r="D32" s="132" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="122" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="G32" s="123" t="s">
+        <v>122</v>
+      </c>
+      <c r="H32" s="134" t="s">
+        <v>66</v>
+      </c>
+      <c r="I32" s="273" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" hidden="1">
+      <c r="A33" s="568" t="s">
+        <v>279</v>
+      </c>
+      <c r="B33" s="569" t="s">
+        <v>280</v>
+      </c>
+      <c r="C33" s="151"/>
+      <c r="D33" s="152" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="153" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="G33" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="H33" s="164" t="s">
+        <v>66</v>
+      </c>
+      <c r="I33" s="275" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="167.25" hidden="1">
+      <c r="A34" s="557" t="s">
+        <v>284</v>
+      </c>
+      <c r="B34" s="558" t="s">
+        <v>286</v>
+      </c>
+      <c r="C34" s="118">
+        <v>3</v>
+      </c>
+      <c r="D34" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="E34" s="149" t="s">
+        <v>289</v>
+      </c>
+      <c r="F34" s="58" t="s">
+        <v>290</v>
+      </c>
+      <c r="G34" s="121" t="s">
+        <v>154</v>
+      </c>
+      <c r="H34" s="133"/>
+      <c r="I34" s="272"/>
+    </row>
+    <row r="35" spans="1:9" ht="183" hidden="1">
+      <c r="A35" s="561" t="s">
+        <v>292</v>
+      </c>
+      <c r="B35" s="562" t="s">
+        <v>293</v>
+      </c>
+      <c r="C35" s="78"/>
+      <c r="D35" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="E35" s="124" t="s">
+        <v>296</v>
+      </c>
+      <c r="F35" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="G35" s="123" t="s">
+        <v>298</v>
+      </c>
+      <c r="H35" s="134"/>
+      <c r="I35" s="273" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="60.75" hidden="1">
+      <c r="A36" s="568" t="s">
+        <v>300</v>
+      </c>
+      <c r="B36" s="569" t="s">
+        <v>301</v>
+      </c>
+      <c r="C36" s="151"/>
+      <c r="D36" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="E36" s="162" t="s">
+        <v>304</v>
+      </c>
+      <c r="F36" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="G36" s="163" t="s">
+        <v>306</v>
+      </c>
+      <c r="H36" s="164"/>
+      <c r="I36" s="275"/>
+    </row>
+    <row r="37" spans="1:9" ht="30.75" hidden="1">
+      <c r="A37" s="557" t="s">
+        <v>308</v>
+      </c>
+      <c r="B37" s="558" t="s">
+        <v>310</v>
+      </c>
+      <c r="C37" s="118">
+        <v>3</v>
+      </c>
+      <c r="D37" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="E37" s="149" t="s">
+        <v>313</v>
+      </c>
+      <c r="F37" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="G37" s="121" t="s">
+        <v>315</v>
+      </c>
+      <c r="H37" s="133"/>
+      <c r="I37" s="272"/>
+    </row>
+    <row r="38" spans="1:9" ht="30.75" hidden="1">
+      <c r="A38" s="561" t="s">
+        <v>317</v>
+      </c>
+      <c r="B38" s="562" t="s">
+        <v>318</v>
+      </c>
+      <c r="C38" s="78"/>
+      <c r="D38" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="E38" s="124" t="s">
+        <v>320</v>
+      </c>
+      <c r="F38" s="53" t="s">
+        <v>321</v>
+      </c>
+      <c r="G38" s="123" t="s">
+        <v>322</v>
+      </c>
+      <c r="H38" s="134"/>
+      <c r="I38" s="273"/>
+    </row>
+    <row r="39" spans="1:9" ht="30.75" hidden="1">
+      <c r="A39" s="561" t="s">
+        <v>323</v>
+      </c>
+      <c r="B39" s="562" t="s">
+        <v>324</v>
+      </c>
+      <c r="C39" s="78"/>
+      <c r="D39" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="E39" s="124" t="s">
+        <v>327</v>
+      </c>
+      <c r="F39" s="53" t="s">
+        <v>328</v>
+      </c>
+      <c r="G39" s="123" t="s">
+        <v>329</v>
+      </c>
+      <c r="H39" s="134"/>
+      <c r="I39" s="273"/>
+    </row>
+    <row r="40" spans="1:9" ht="30.75" hidden="1">
+      <c r="A40" s="561" t="s">
+        <v>331</v>
+      </c>
+      <c r="B40" s="562" t="s">
+        <v>332</v>
+      </c>
+      <c r="C40" s="78"/>
+      <c r="D40" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="E40" s="124" t="s">
+        <v>335</v>
+      </c>
+      <c r="F40" s="53" t="s">
+        <v>336</v>
+      </c>
+      <c r="G40" s="123" t="s">
+        <v>337</v>
+      </c>
+      <c r="H40" s="134"/>
+      <c r="I40" s="273" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="30.75" hidden="1">
+      <c r="A41" s="568" t="s">
+        <v>340</v>
+      </c>
+      <c r="B41" s="569" t="s">
+        <v>341</v>
+      </c>
+      <c r="C41" s="151"/>
+      <c r="D41" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="E41" s="162" t="s">
+        <v>344</v>
+      </c>
+      <c r="F41" s="57" t="s">
+        <v>345</v>
+      </c>
+      <c r="G41" s="163" t="s">
+        <v>346</v>
+      </c>
+      <c r="H41" s="164"/>
+      <c r="I41" s="275" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="152.25" hidden="1">
+      <c r="A42" s="557" t="s">
+        <v>348</v>
+      </c>
+      <c r="B42" s="558" t="s">
+        <v>350</v>
+      </c>
+      <c r="C42" s="118">
+        <v>21</v>
+      </c>
+      <c r="D42" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="E42" s="149" t="s">
+        <v>353</v>
+      </c>
+      <c r="F42" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="G42" s="121" t="s">
+        <v>355</v>
+      </c>
+      <c r="H42" s="133"/>
+      <c r="I42" s="272"/>
+    </row>
+    <row r="43" spans="1:9" ht="91.5" hidden="1">
+      <c r="A43" s="561" t="s">
+        <v>357</v>
+      </c>
+      <c r="B43" s="562" t="s">
+        <v>358</v>
+      </c>
+      <c r="C43" s="78"/>
+      <c r="D43" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="E43" s="124" t="s">
+        <v>360</v>
+      </c>
+      <c r="F43" s="53" t="s">
+        <v>361</v>
+      </c>
+      <c r="G43" s="123" t="s">
+        <v>362</v>
+      </c>
+      <c r="H43" s="134"/>
+      <c r="I43" s="273"/>
+    </row>
+    <row r="44" spans="1:9" ht="229.5" hidden="1">
+      <c r="A44" s="561" t="s">
+        <v>363</v>
+      </c>
+      <c r="B44" s="562" t="s">
+        <v>364</v>
+      </c>
+      <c r="C44" s="78"/>
+      <c r="D44" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="E44" s="124" t="s">
+        <v>367</v>
+      </c>
+      <c r="F44" s="53" t="s">
+        <v>368</v>
+      </c>
+      <c r="G44" s="123" t="s">
+        <v>369</v>
+      </c>
+      <c r="H44" s="134"/>
+      <c r="I44" s="273"/>
+    </row>
+    <row r="45" spans="1:9" ht="106.5" hidden="1">
+      <c r="A45" s="575" t="s">
+        <v>371</v>
+      </c>
+      <c r="B45" s="577" t="s">
+        <v>372</v>
+      </c>
+      <c r="C45" s="382"/>
+      <c r="D45" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E45" s="383" t="s">
+        <v>376</v>
+      </c>
+      <c r="F45" s="384" t="s">
+        <v>377</v>
+      </c>
+      <c r="G45" s="385" t="s">
+        <v>378</v>
+      </c>
+      <c r="H45" s="386"/>
+      <c r="I45" s="387" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" hidden="1">
+      <c r="A46" s="579" t="s">
+        <v>381</v>
+      </c>
+      <c r="B46" s="556" t="s">
+        <v>382</v>
+      </c>
+      <c r="C46" s="396"/>
+      <c r="D46" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E46" s="397"/>
+      <c r="F46" s="398"/>
+      <c r="G46" s="399"/>
+      <c r="H46" s="400"/>
+      <c r="I46" s="401" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="91.5" hidden="1">
+      <c r="A47" s="568" t="s">
+        <v>385</v>
+      </c>
+      <c r="B47" s="569" t="s">
+        <v>386</v>
+      </c>
+      <c r="C47" s="151"/>
+      <c r="D47" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="E47" s="162" t="s">
+        <v>389</v>
+      </c>
+      <c r="F47" s="57" t="s">
+        <v>390</v>
+      </c>
+      <c r="G47" s="163" t="s">
+        <v>391</v>
+      </c>
+      <c r="H47" s="164"/>
+      <c r="I47" s="275"/>
+    </row>
+    <row r="48" spans="1:9" ht="409.6" hidden="1">
+      <c r="A48" s="581" t="s">
+        <v>393</v>
+      </c>
+      <c r="B48" s="558" t="s">
+        <v>395</v>
+      </c>
+      <c r="C48" s="118"/>
+      <c r="D48" s="131"/>
+      <c r="E48" s="149" t="s">
+        <v>399</v>
+      </c>
+      <c r="F48" s="149" t="s">
+        <v>400</v>
+      </c>
+      <c r="G48" s="166" t="s">
+        <v>401</v>
+      </c>
+      <c r="H48" s="133" t="s">
+        <v>402</v>
+      </c>
+      <c r="I48" s="272"/>
+    </row>
+    <row r="49" spans="1:9" ht="60.75" hidden="1">
+      <c r="A49" s="582" t="s">
+        <v>404</v>
+      </c>
+      <c r="B49" s="562" t="s">
+        <v>405</v>
+      </c>
+      <c r="C49" s="78"/>
+      <c r="D49" s="132"/>
+      <c r="E49" s="53" t="s">
+        <v>407</v>
+      </c>
+      <c r="F49" s="53" t="s">
+        <v>408</v>
+      </c>
+      <c r="G49" s="126" t="s">
+        <v>409</v>
+      </c>
+      <c r="H49" s="134"/>
+      <c r="I49" s="273"/>
+    </row>
+    <row r="50" spans="1:9" ht="229.5" hidden="1">
+      <c r="A50" s="582" t="s">
+        <v>410</v>
+      </c>
+      <c r="B50" s="562" t="s">
+        <v>411</v>
+      </c>
+      <c r="C50" s="78"/>
+      <c r="D50" s="132"/>
+      <c r="E50" s="124" t="s">
+        <v>367</v>
+      </c>
+      <c r="F50" s="53" t="s">
+        <v>368</v>
+      </c>
+      <c r="G50" s="126" t="s">
+        <v>414</v>
+      </c>
+      <c r="H50" s="134"/>
+      <c r="I50" s="273"/>
+    </row>
+    <row r="51" spans="1:9" ht="229.5" hidden="1">
+      <c r="A51" s="582" t="s">
+        <v>416</v>
+      </c>
+      <c r="B51" s="562" t="s">
+        <v>417</v>
+      </c>
+      <c r="C51" s="78"/>
+      <c r="D51" s="132"/>
+      <c r="E51" s="124" t="s">
+        <v>420</v>
+      </c>
+      <c r="F51" s="53" t="s">
+        <v>421</v>
+      </c>
+      <c r="G51" s="126" t="s">
+        <v>422</v>
+      </c>
+      <c r="H51" s="134"/>
+      <c r="I51" s="273"/>
+    </row>
+    <row r="52" spans="1:9" ht="121.5" hidden="1">
+      <c r="A52" s="582" t="s">
+        <v>424</v>
+      </c>
+      <c r="B52" s="562" t="s">
+        <v>425</v>
+      </c>
+      <c r="C52" s="78"/>
+      <c r="D52" s="132"/>
+      <c r="E52" s="124" t="s">
+        <v>376</v>
+      </c>
+      <c r="F52" s="53" t="s">
+        <v>428</v>
+      </c>
+      <c r="G52" s="126" t="s">
+        <v>429</v>
+      </c>
+      <c r="H52" s="134"/>
+      <c r="I52" s="273"/>
+    </row>
+    <row r="53" spans="1:9" ht="106.5" hidden="1">
+      <c r="A53" s="582" t="s">
+        <v>431</v>
+      </c>
+      <c r="B53" s="562" t="s">
+        <v>432</v>
+      </c>
+      <c r="C53" s="78"/>
+      <c r="D53" s="132"/>
+      <c r="E53" s="124" t="s">
+        <v>376</v>
+      </c>
+      <c r="F53" s="53" t="s">
+        <v>428</v>
+      </c>
+      <c r="G53" s="126" t="s">
+        <v>435</v>
+      </c>
+      <c r="H53" s="134"/>
+      <c r="I53" s="273"/>
+    </row>
+    <row r="54" spans="1:9" ht="381.75" hidden="1">
+      <c r="A54" s="582" t="s">
+        <v>437</v>
+      </c>
+      <c r="B54" s="562" t="s">
+        <v>438</v>
+      </c>
+      <c r="C54" s="78"/>
+      <c r="D54" s="131"/>
+      <c r="E54" s="162"/>
+      <c r="F54" s="57" t="s">
+        <v>441</v>
+      </c>
+      <c r="G54" s="126" t="s">
+        <v>442</v>
+      </c>
+      <c r="H54" s="134"/>
+      <c r="I54" s="273"/>
+    </row>
+    <row r="55" spans="1:9" ht="290.25" hidden="1">
+      <c r="A55" s="583" t="s">
+        <v>444</v>
+      </c>
+      <c r="B55" s="569" t="s">
+        <v>445</v>
+      </c>
+      <c r="C55" s="151"/>
+      <c r="D55" s="131"/>
+      <c r="E55" s="162"/>
+      <c r="F55" s="57" t="s">
+        <v>448</v>
+      </c>
+      <c r="G55" s="167" t="s">
+        <v>449</v>
+      </c>
+      <c r="H55" s="164"/>
+      <c r="I55" s="275"/>
+    </row>
+    <row r="56" spans="1:9" ht="305.25" hidden="1">
+      <c r="A56" s="557" t="s">
+        <v>451</v>
+      </c>
+      <c r="B56" s="558" t="s">
+        <v>454</v>
+      </c>
+      <c r="C56" s="118"/>
+      <c r="D56" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E56" s="149" t="s">
+        <v>457</v>
+      </c>
+      <c r="F56" s="58" t="s">
+        <v>458</v>
+      </c>
+      <c r="G56" s="166" t="s">
+        <v>459</v>
+      </c>
+      <c r="H56" s="133"/>
+      <c r="I56" s="272"/>
+    </row>
+    <row r="57" spans="1:9" ht="45.75" hidden="1">
+      <c r="A57" s="561" t="s">
+        <v>461</v>
+      </c>
+      <c r="B57" s="562" t="s">
+        <v>462</v>
+      </c>
+      <c r="C57" s="78"/>
+      <c r="D57" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E57" s="124" t="s">
+        <v>464</v>
+      </c>
+      <c r="F57" s="53" t="s">
+        <v>465</v>
+      </c>
+      <c r="G57" s="126" t="s">
+        <v>466</v>
+      </c>
+      <c r="H57" s="134"/>
+      <c r="I57" s="273"/>
+    </row>
+    <row r="58" spans="1:9" ht="198" hidden="1">
+      <c r="A58" s="561" t="s">
+        <v>467</v>
+      </c>
+      <c r="B58" s="562" t="s">
+        <v>468</v>
+      </c>
+      <c r="C58" s="78"/>
+      <c r="D58" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E58" s="124" t="s">
+        <v>471</v>
+      </c>
+      <c r="F58" s="53" t="s">
+        <v>472</v>
+      </c>
+      <c r="G58" s="126" t="s">
+        <v>473</v>
+      </c>
+      <c r="H58" s="134"/>
+      <c r="I58" s="273"/>
+    </row>
+    <row r="59" spans="1:9" ht="45.75" hidden="1">
+      <c r="A59" s="561" t="s">
+        <v>475</v>
+      </c>
+      <c r="B59" s="562" t="s">
+        <v>476</v>
+      </c>
+      <c r="C59" s="78"/>
+      <c r="D59" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E59" s="124" t="s">
+        <v>479</v>
+      </c>
+      <c r="F59" s="53" t="s">
+        <v>480</v>
+      </c>
+      <c r="G59" s="126" t="s">
+        <v>481</v>
+      </c>
+      <c r="H59" s="134"/>
+      <c r="I59" s="273"/>
+    </row>
+    <row r="60" spans="1:9" ht="121.5" hidden="1">
+      <c r="A60" s="575" t="s">
+        <v>483</v>
+      </c>
+      <c r="B60" s="577" t="s">
+        <v>484</v>
+      </c>
+      <c r="C60" s="382"/>
+      <c r="D60" s="368" t="s">
+        <v>375</v>
+      </c>
+      <c r="E60" s="383" t="s">
+        <v>376</v>
+      </c>
+      <c r="F60" s="384" t="s">
+        <v>487</v>
+      </c>
+      <c r="G60" s="409" t="s">
+        <v>488</v>
+      </c>
+      <c r="H60" s="386"/>
+      <c r="I60" s="387" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" hidden="1">
+      <c r="A61" s="555" t="s">
+        <v>490</v>
+      </c>
+      <c r="B61" s="555" t="s">
+        <v>491</v>
+      </c>
+      <c r="C61" s="382"/>
+      <c r="D61" s="368"/>
+      <c r="E61" s="383"/>
+      <c r="F61" s="384"/>
+      <c r="G61" s="410"/>
+      <c r="H61" s="386"/>
+      <c r="I61" s="387" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="91.5" hidden="1">
+      <c r="A62" s="561" t="s">
+        <v>494</v>
+      </c>
+      <c r="B62" s="562" t="s">
+        <v>495</v>
+      </c>
+      <c r="C62" s="78"/>
+      <c r="D62" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E62" s="124"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="166" t="s">
+        <v>498</v>
+      </c>
+      <c r="H62" s="134"/>
+      <c r="I62" s="273"/>
+    </row>
+    <row r="63" spans="1:9" ht="167.25" hidden="1">
+      <c r="A63" s="561" t="s">
+        <v>500</v>
+      </c>
+      <c r="B63" s="562" t="s">
+        <v>501</v>
+      </c>
+      <c r="C63" s="78"/>
+      <c r="D63" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E63" s="206" t="s">
+        <v>504</v>
+      </c>
+      <c r="F63" s="53" t="s">
+        <v>505</v>
+      </c>
+      <c r="G63" s="126" t="s">
+        <v>506</v>
+      </c>
+      <c r="H63" s="134"/>
+      <c r="I63" s="273"/>
+    </row>
+    <row r="64" spans="1:9" ht="121.5" hidden="1">
+      <c r="A64" s="561" t="s">
+        <v>508</v>
+      </c>
+      <c r="B64" s="562" t="s">
+        <v>509</v>
+      </c>
+      <c r="C64" s="78"/>
+      <c r="D64" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E64" s="124" t="s">
+        <v>376</v>
+      </c>
+      <c r="F64" s="53" t="s">
+        <v>512</v>
+      </c>
+      <c r="G64" s="126" t="s">
+        <v>513</v>
+      </c>
+      <c r="H64" s="134"/>
+      <c r="I64" s="273"/>
+    </row>
+    <row r="65" spans="1:9" ht="30.75" hidden="1">
+      <c r="A65" s="561" t="s">
+        <v>515</v>
+      </c>
+      <c r="B65" s="562" t="s">
+        <v>516</v>
+      </c>
+      <c r="C65" s="78"/>
+      <c r="D65" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E65" s="124" t="s">
+        <v>519</v>
+      </c>
+      <c r="F65" s="53" t="s">
+        <v>520</v>
+      </c>
+      <c r="G65" s="126" t="s">
+        <v>521</v>
+      </c>
+      <c r="H65" s="134"/>
+      <c r="I65" s="273"/>
+    </row>
+    <row r="66" spans="1:9" ht="152.25" hidden="1">
+      <c r="A66" s="561" t="s">
+        <v>523</v>
+      </c>
+      <c r="B66" s="562" t="s">
+        <v>524</v>
+      </c>
+      <c r="C66" s="78"/>
+      <c r="D66" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E66" s="124" t="s">
+        <v>527</v>
+      </c>
+      <c r="F66" s="53" t="s">
+        <v>528</v>
+      </c>
+      <c r="G66" s="126" t="s">
+        <v>529</v>
+      </c>
+      <c r="H66" s="134"/>
+      <c r="I66" s="273"/>
+    </row>
+    <row r="67" spans="1:9" ht="152.25" hidden="1">
+      <c r="A67" s="568" t="s">
+        <v>531</v>
+      </c>
+      <c r="B67" s="569" t="s">
+        <v>532</v>
+      </c>
+      <c r="C67" s="151"/>
+      <c r="D67" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E67" s="162" t="s">
+        <v>535</v>
+      </c>
+      <c r="F67" s="53" t="s">
+        <v>536</v>
+      </c>
+      <c r="G67" s="126" t="s">
+        <v>537</v>
+      </c>
+      <c r="H67" s="164"/>
+      <c r="I67" s="275"/>
+    </row>
+    <row r="68" spans="1:9" ht="106.5" hidden="1">
+      <c r="A68" s="557" t="s">
+        <v>539</v>
+      </c>
+      <c r="B68" s="558" t="s">
+        <v>541</v>
+      </c>
+      <c r="C68" s="118"/>
+      <c r="D68" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E68" s="149" t="s">
+        <v>544</v>
+      </c>
+      <c r="F68" s="58" t="s">
+        <v>545</v>
+      </c>
+      <c r="G68" s="166" t="s">
+        <v>546</v>
+      </c>
+      <c r="H68" s="133"/>
+      <c r="I68" s="272"/>
+    </row>
+    <row r="69" spans="1:9" ht="91.5" hidden="1">
+      <c r="A69" s="561" t="s">
+        <v>548</v>
+      </c>
+      <c r="B69" s="562" t="s">
+        <v>549</v>
+      </c>
+      <c r="C69" s="78"/>
+      <c r="D69" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E69" s="124" t="s">
+        <v>360</v>
+      </c>
+      <c r="F69" s="53" t="s">
+        <v>361</v>
+      </c>
+      <c r="G69" s="126" t="s">
+        <v>551</v>
+      </c>
+      <c r="H69" s="134"/>
+      <c r="I69" s="273"/>
+    </row>
+    <row r="70" spans="1:9" ht="121.5" hidden="1">
+      <c r="A70" s="561" t="s">
+        <v>552</v>
+      </c>
+      <c r="B70" s="562" t="s">
+        <v>553</v>
+      </c>
+      <c r="C70" s="78"/>
+      <c r="D70" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E70" s="124" t="s">
+        <v>122</v>
+      </c>
+      <c r="F70" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="G70" s="126" t="s">
+        <v>556</v>
+      </c>
+      <c r="H70" s="134"/>
+      <c r="I70" s="273"/>
+    </row>
+    <row r="71" spans="1:9" ht="229.5" hidden="1">
+      <c r="A71" s="561" t="s">
+        <v>557</v>
+      </c>
+      <c r="B71" s="562" t="s">
+        <v>558</v>
+      </c>
+      <c r="C71" s="78"/>
+      <c r="D71" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E71" s="124" t="s">
+        <v>367</v>
+      </c>
+      <c r="F71" s="53" t="s">
+        <v>368</v>
+      </c>
+      <c r="G71" s="126" t="s">
+        <v>561</v>
+      </c>
+      <c r="H71" s="134"/>
+      <c r="I71" s="273"/>
+    </row>
+    <row r="72" spans="1:9" ht="305.25" hidden="1">
+      <c r="A72" s="561" t="s">
+        <v>563</v>
+      </c>
+      <c r="B72" s="562" t="s">
+        <v>564</v>
+      </c>
+      <c r="C72" s="78"/>
+      <c r="D72" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E72" s="124" t="s">
+        <v>567</v>
+      </c>
+      <c r="F72" s="53" t="s">
+        <v>568</v>
+      </c>
+      <c r="G72" s="126" t="s">
+        <v>569</v>
+      </c>
+      <c r="H72" s="134"/>
+      <c r="I72" s="273"/>
+    </row>
+    <row r="73" spans="1:9" ht="229.5" hidden="1">
+      <c r="A73" s="584" t="s">
+        <v>571</v>
+      </c>
+      <c r="B73" s="585" t="s">
+        <v>572</v>
+      </c>
+      <c r="C73" s="78"/>
+      <c r="D73" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E73" s="124" t="s">
+        <v>420</v>
+      </c>
+      <c r="F73" s="53" t="s">
+        <v>421</v>
+      </c>
+      <c r="G73" s="126" t="s">
+        <v>575</v>
+      </c>
+      <c r="H73" s="134"/>
+      <c r="I73" s="273"/>
+    </row>
+    <row r="74" spans="1:9" ht="91.5" hidden="1">
+      <c r="A74" s="588" t="s">
+        <v>577</v>
+      </c>
+      <c r="B74" s="589" t="s">
+        <v>578</v>
+      </c>
+      <c r="C74" s="78"/>
+      <c r="D74" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E74" s="124" t="s">
+        <v>389</v>
+      </c>
+      <c r="F74" s="53" t="s">
+        <v>390</v>
+      </c>
+      <c r="G74" s="166" t="s">
+        <v>498</v>
+      </c>
+      <c r="H74" s="134"/>
+      <c r="I74" s="273"/>
+    </row>
+    <row r="75" spans="1:9" ht="183" hidden="1">
+      <c r="A75" s="557" t="s">
+        <v>582</v>
+      </c>
+      <c r="B75" s="558" t="s">
+        <v>584</v>
+      </c>
+      <c r="C75" s="78"/>
+      <c r="D75" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E75" s="124" t="s">
+        <v>389</v>
+      </c>
+      <c r="F75" s="53" t="s">
+        <v>390</v>
+      </c>
+      <c r="G75" s="126" t="s">
+        <v>587</v>
+      </c>
+      <c r="H75" s="134"/>
+      <c r="I75" s="273"/>
+    </row>
+    <row r="76" spans="1:9" ht="91.5" hidden="1">
+      <c r="A76" s="561" t="s">
+        <v>588</v>
+      </c>
+      <c r="B76" s="562" t="s">
+        <v>589</v>
+      </c>
+      <c r="C76" s="78"/>
+      <c r="D76" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E76" s="124" t="s">
+        <v>592</v>
+      </c>
+      <c r="F76" s="53" t="s">
+        <v>593</v>
+      </c>
+      <c r="G76" s="126" t="s">
+        <v>594</v>
+      </c>
+      <c r="H76" s="134"/>
+      <c r="I76" s="273"/>
+    </row>
+    <row r="77" spans="1:9" ht="76.5" hidden="1">
+      <c r="A77" s="568" t="s">
+        <v>596</v>
+      </c>
+      <c r="B77" s="569" t="s">
+        <v>597</v>
+      </c>
+      <c r="C77" s="151"/>
+      <c r="D77" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E77" s="162" t="s">
+        <v>535</v>
+      </c>
+      <c r="F77" s="57" t="s">
+        <v>600</v>
+      </c>
+      <c r="G77" s="167" t="s">
+        <v>601</v>
+      </c>
+      <c r="H77" s="164"/>
+      <c r="I77" s="275"/>
+    </row>
+    <row r="78" spans="1:9" ht="30.75" hidden="1">
+      <c r="A78" s="557" t="s">
+        <v>603</v>
+      </c>
+      <c r="B78" s="558" t="s">
+        <v>605</v>
+      </c>
+      <c r="C78" s="118"/>
+      <c r="D78" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E78" s="157"/>
+      <c r="F78" s="158"/>
+      <c r="G78" s="126" t="s">
+        <v>606</v>
+      </c>
+      <c r="H78" s="160"/>
+      <c r="I78" s="272"/>
+    </row>
+    <row r="79" spans="1:9" ht="30.75" hidden="1">
+      <c r="A79" s="557" t="s">
+        <v>607</v>
+      </c>
+      <c r="B79" s="558" t="s">
+        <v>608</v>
+      </c>
+      <c r="C79" s="78"/>
+      <c r="D79" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E79" s="124" t="s">
+        <v>609</v>
+      </c>
+      <c r="F79" s="53" t="s">
+        <v>610</v>
+      </c>
+      <c r="G79" s="126" t="s">
+        <v>611</v>
+      </c>
+      <c r="H79" s="134"/>
+      <c r="I79" s="273"/>
+    </row>
+    <row r="80" spans="1:9" ht="152.25" hidden="1">
+      <c r="A80" s="568" t="s">
+        <v>613</v>
+      </c>
+      <c r="B80" s="569" t="s">
+        <v>614</v>
+      </c>
+      <c r="C80" s="151"/>
+      <c r="D80" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E80" s="162" t="s">
+        <v>617</v>
+      </c>
+      <c r="F80" s="57" t="s">
+        <v>618</v>
+      </c>
+      <c r="G80" s="167" t="s">
+        <v>619</v>
+      </c>
+      <c r="H80" s="164"/>
+      <c r="I80" s="275"/>
+    </row>
+    <row r="81" spans="1:9" ht="259.5">
+      <c r="A81" s="557" t="s">
+        <v>621</v>
+      </c>
+      <c r="B81" s="558" t="s">
+        <v>623</v>
+      </c>
+      <c r="C81" s="118"/>
+      <c r="D81" s="131" t="s">
+        <v>626</v>
+      </c>
+      <c r="E81" s="149"/>
+      <c r="F81" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="G81" s="166" t="s">
+        <v>628</v>
+      </c>
+      <c r="H81" s="133"/>
+      <c r="I81" s="272"/>
+    </row>
+    <row r="82" spans="1:9" ht="121.5">
+      <c r="A82" s="561" t="s">
+        <v>630</v>
+      </c>
+      <c r="B82" s="562" t="s">
+        <v>631</v>
+      </c>
+      <c r="C82" s="78"/>
+      <c r="D82" s="131" t="s">
+        <v>626</v>
+      </c>
+      <c r="E82" s="124" t="s">
+        <v>633</v>
+      </c>
+      <c r="F82" s="53" t="s">
+        <v>633</v>
+      </c>
+      <c r="G82" s="126" t="s">
+        <v>634</v>
+      </c>
+      <c r="H82" s="134"/>
+      <c r="I82" s="273"/>
+    </row>
+    <row r="83" spans="1:9" ht="76.5">
+      <c r="A83" s="561" t="s">
+        <v>635</v>
+      </c>
+      <c r="B83" s="562" t="s">
+        <v>636</v>
+      </c>
+      <c r="C83" s="78"/>
+      <c r="D83" s="131" t="s">
+        <v>626</v>
+      </c>
+      <c r="E83" s="124" t="s">
+        <v>638</v>
+      </c>
+      <c r="F83" s="124" t="s">
+        <v>639</v>
+      </c>
+      <c r="G83" s="126" t="s">
+        <v>640</v>
+      </c>
+      <c r="H83" s="134"/>
+      <c r="I83" s="273"/>
+    </row>
+    <row r="84" spans="1:9" ht="229.5">
+      <c r="A84" s="561" t="s">
+        <v>641</v>
+      </c>
+      <c r="B84" s="562" t="s">
+        <v>642</v>
+      </c>
+      <c r="C84" s="78"/>
+      <c r="D84" s="131" t="s">
+        <v>626</v>
+      </c>
+      <c r="E84" s="124" t="s">
+        <v>367</v>
+      </c>
+      <c r="F84" s="53" t="s">
+        <v>368</v>
+      </c>
+      <c r="G84" s="126" t="s">
+        <v>645</v>
+      </c>
+      <c r="H84" s="134"/>
+      <c r="I84" s="273"/>
+    </row>
+    <row r="85" spans="1:9" ht="229.5">
+      <c r="A85" s="561" t="s">
+        <v>647</v>
+      </c>
+      <c r="B85" s="562" t="s">
+        <v>648</v>
+      </c>
+      <c r="C85" s="78"/>
+      <c r="D85" s="131" t="s">
+        <v>626</v>
+      </c>
+      <c r="E85" s="124" t="s">
+        <v>420</v>
+      </c>
+      <c r="F85" s="53" t="s">
+        <v>421</v>
+      </c>
+      <c r="G85" s="126" t="s">
+        <v>651</v>
+      </c>
+      <c r="H85" s="134"/>
+      <c r="I85" s="273"/>
+    </row>
+    <row r="86" spans="1:9" ht="76.5">
+      <c r="A86" s="561" t="s">
+        <v>653</v>
+      </c>
+      <c r="B86" s="562" t="s">
+        <v>654</v>
+      </c>
+      <c r="C86" s="78"/>
+      <c r="D86" s="131" t="s">
+        <v>626</v>
+      </c>
+      <c r="E86" s="53" t="s">
+        <v>527</v>
+      </c>
+      <c r="F86" s="53" t="s">
+        <v>657</v>
+      </c>
+      <c r="G86" s="126" t="s">
+        <v>658</v>
+      </c>
+      <c r="H86" s="134"/>
+      <c r="I86" s="273"/>
+    </row>
+    <row r="87" spans="1:9" ht="76.5">
+      <c r="A87" s="568" t="s">
+        <v>660</v>
+      </c>
+      <c r="B87" s="569" t="s">
+        <v>661</v>
+      </c>
+      <c r="C87" s="151"/>
+      <c r="D87" s="131" t="s">
+        <v>626</v>
+      </c>
+      <c r="E87" s="57" t="s">
+        <v>535</v>
+      </c>
+      <c r="F87" s="57" t="s">
+        <v>600</v>
+      </c>
+      <c r="G87" s="126" t="s">
+        <v>664</v>
+      </c>
+      <c r="H87" s="164"/>
+      <c r="I87" s="275"/>
+    </row>
+    <row r="88" spans="1:9" ht="167.25" hidden="1">
+      <c r="A88" s="557" t="s">
+        <v>666</v>
+      </c>
+      <c r="B88" s="558" t="s">
+        <v>668</v>
+      </c>
+      <c r="C88" s="118"/>
+      <c r="D88" s="131" t="s">
+        <v>671</v>
+      </c>
+      <c r="E88" s="149" t="s">
+        <v>672</v>
+      </c>
+      <c r="F88" s="58" t="s">
+        <v>673</v>
+      </c>
+      <c r="G88" s="166" t="s">
+        <v>674</v>
+      </c>
+      <c r="H88" s="133"/>
+      <c r="I88" s="272"/>
+    </row>
+    <row r="89" spans="1:9" ht="91.5" hidden="1">
+      <c r="A89" s="561" t="s">
+        <v>676</v>
+      </c>
+      <c r="B89" s="562" t="s">
+        <v>677</v>
+      </c>
+      <c r="C89" s="78"/>
+      <c r="D89" s="132" t="s">
+        <v>671</v>
+      </c>
+      <c r="E89" s="124" t="s">
+        <v>679</v>
+      </c>
+      <c r="F89" s="124" t="s">
+        <v>679</v>
+      </c>
+      <c r="G89" s="126" t="s">
+        <v>680</v>
+      </c>
+      <c r="H89" s="134"/>
+      <c r="I89" s="273"/>
+    </row>
+    <row r="90" spans="1:9" ht="76.5" hidden="1">
+      <c r="A90" s="561" t="s">
+        <v>682</v>
+      </c>
+      <c r="B90" s="562" t="s">
+        <v>683</v>
+      </c>
+      <c r="C90" s="78"/>
+      <c r="D90" s="132" t="s">
+        <v>671</v>
+      </c>
+      <c r="E90" s="124" t="s">
+        <v>686</v>
+      </c>
+      <c r="F90" s="53" t="s">
+        <v>687</v>
+      </c>
+      <c r="G90" s="126" t="s">
+        <v>688</v>
+      </c>
+      <c r="H90" s="134"/>
+      <c r="I90" s="273"/>
+    </row>
+    <row r="91" spans="1:9" ht="213" hidden="1">
+      <c r="A91" s="561" t="s">
+        <v>691</v>
+      </c>
+      <c r="B91" s="562" t="s">
+        <v>692</v>
+      </c>
+      <c r="C91" s="78"/>
+      <c r="D91" s="132" t="s">
+        <v>671</v>
+      </c>
+      <c r="E91" s="124" t="s">
+        <v>695</v>
+      </c>
+      <c r="F91" s="53" t="s">
+        <v>696</v>
+      </c>
+      <c r="G91" s="126" t="s">
+        <v>697</v>
+      </c>
+      <c r="H91" s="134"/>
+      <c r="I91" s="273"/>
+    </row>
+    <row r="92" spans="1:9" ht="152.25" hidden="1">
+      <c r="A92" s="561" t="s">
+        <v>699</v>
+      </c>
+      <c r="B92" s="562" t="s">
+        <v>700</v>
+      </c>
+      <c r="C92" s="78"/>
+      <c r="D92" s="132" t="s">
+        <v>671</v>
+      </c>
+      <c r="E92" s="124" t="s">
+        <v>703</v>
+      </c>
+      <c r="F92" s="53" t="s">
+        <v>704</v>
+      </c>
+      <c r="G92" s="126" t="s">
+        <v>705</v>
+      </c>
+      <c r="H92" s="134"/>
+      <c r="I92" s="273" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="30.75" hidden="1">
+      <c r="A93" s="568" t="s">
+        <v>708</v>
+      </c>
+      <c r="B93" s="569" t="s">
+        <v>709</v>
+      </c>
+      <c r="C93" s="151"/>
+      <c r="D93" s="152" t="s">
+        <v>671</v>
+      </c>
+      <c r="E93" s="162" t="s">
+        <v>712</v>
+      </c>
+      <c r="F93" s="57" t="s">
+        <v>633</v>
+      </c>
+      <c r="G93" s="167" t="s">
+        <v>633</v>
+      </c>
+      <c r="H93" s="164"/>
+      <c r="I93" s="275"/>
+    </row>
+    <row r="94" spans="1:9" ht="106.5" hidden="1">
+      <c r="A94" s="557" t="s">
+        <v>714</v>
+      </c>
+      <c r="B94" s="558" t="s">
+        <v>716</v>
+      </c>
+      <c r="C94" s="118"/>
+      <c r="D94" s="131" t="s">
+        <v>671</v>
+      </c>
+      <c r="E94" s="149" t="s">
+        <v>544</v>
+      </c>
+      <c r="F94" s="58" t="s">
+        <v>719</v>
+      </c>
+      <c r="G94" s="166" t="s">
+        <v>720</v>
+      </c>
+      <c r="H94" s="133"/>
+      <c r="I94" s="272"/>
+    </row>
+    <row r="95" spans="1:9" ht="121.5" hidden="1">
+      <c r="A95" s="561" t="s">
+        <v>722</v>
+      </c>
+      <c r="B95" s="562" t="s">
+        <v>723</v>
+      </c>
+      <c r="C95" s="78"/>
+      <c r="D95" s="132" t="s">
+        <v>671</v>
+      </c>
+      <c r="E95" s="124" t="s">
+        <v>122</v>
+      </c>
+      <c r="F95" s="53"/>
+      <c r="G95" s="126" t="s">
+        <v>725</v>
+      </c>
+      <c r="H95" s="134"/>
+      <c r="I95" s="273"/>
+    </row>
+    <row r="96" spans="1:9" ht="91.5" hidden="1">
+      <c r="A96" s="561" t="s">
+        <v>726</v>
+      </c>
+      <c r="B96" s="562" t="s">
+        <v>727</v>
+      </c>
+      <c r="C96" s="78"/>
+      <c r="D96" s="132" t="s">
+        <v>671</v>
+      </c>
+      <c r="E96" s="124" t="s">
+        <v>360</v>
+      </c>
+      <c r="F96" s="53" t="s">
+        <v>361</v>
+      </c>
+      <c r="G96" s="126" t="s">
+        <v>729</v>
+      </c>
+      <c r="H96" s="134"/>
+      <c r="I96" s="273"/>
+    </row>
+    <row r="97" spans="1:9" ht="229.5" hidden="1">
+      <c r="A97" s="561" t="s">
+        <v>730</v>
+      </c>
+      <c r="B97" s="562" t="s">
+        <v>731</v>
+      </c>
+      <c r="C97" s="78"/>
+      <c r="D97" s="132" t="s">
+        <v>671</v>
+      </c>
+      <c r="E97" s="124" t="s">
+        <v>367</v>
+      </c>
+      <c r="F97" s="53" t="s">
+        <v>368</v>
+      </c>
+      <c r="G97" s="126" t="s">
+        <v>734</v>
+      </c>
+      <c r="H97" s="134"/>
+      <c r="I97" s="273"/>
+    </row>
+    <row r="98" spans="1:9" ht="229.5" hidden="1">
+      <c r="A98" s="561" t="s">
+        <v>736</v>
+      </c>
+      <c r="B98" s="562" t="s">
+        <v>737</v>
+      </c>
+      <c r="C98" s="78"/>
+      <c r="D98" s="132" t="s">
+        <v>671</v>
+      </c>
+      <c r="E98" s="124" t="s">
+        <v>420</v>
+      </c>
+      <c r="F98" s="53" t="s">
+        <v>421</v>
+      </c>
+      <c r="G98" s="126" t="s">
+        <v>740</v>
+      </c>
+      <c r="H98" s="134"/>
+      <c r="I98" s="273"/>
+    </row>
+    <row r="99" spans="1:9" ht="167.25" hidden="1">
+      <c r="A99" s="561" t="s">
+        <v>742</v>
+      </c>
+      <c r="B99" s="562" t="s">
+        <v>743</v>
+      </c>
+      <c r="C99" s="78"/>
+      <c r="D99" s="132" t="s">
+        <v>671</v>
+      </c>
+      <c r="E99" s="124" t="s">
+        <v>389</v>
+      </c>
+      <c r="F99" s="53" t="s">
+        <v>390</v>
+      </c>
+      <c r="G99" s="126" t="s">
+        <v>746</v>
+      </c>
+      <c r="H99" s="134"/>
+      <c r="I99" s="273"/>
+    </row>
+    <row r="100" spans="1:9" ht="91.5" hidden="1">
+      <c r="A100" s="561" t="s">
+        <v>747</v>
+      </c>
+      <c r="B100" s="562" t="s">
+        <v>748</v>
+      </c>
+      <c r="C100" s="78"/>
+      <c r="D100" s="132" t="s">
+        <v>671</v>
+      </c>
+      <c r="E100" s="124" t="s">
+        <v>389</v>
+      </c>
+      <c r="F100" s="53" t="s">
+        <v>390</v>
+      </c>
+      <c r="G100" s="126" t="s">
+        <v>498</v>
+      </c>
+      <c r="H100" s="134"/>
+      <c r="I100" s="273"/>
+    </row>
+    <row r="101" spans="1:9" ht="76.5" hidden="1">
+      <c r="A101" s="561" t="s">
+        <v>752</v>
+      </c>
+      <c r="B101" s="562" t="s">
+        <v>753</v>
+      </c>
+      <c r="C101" s="78"/>
+      <c r="D101" s="132" t="s">
+        <v>671</v>
+      </c>
+      <c r="E101" s="124" t="s">
+        <v>535</v>
+      </c>
+      <c r="F101" s="53" t="s">
+        <v>600</v>
+      </c>
+      <c r="G101" s="126" t="s">
+        <v>756</v>
+      </c>
+      <c r="H101" s="134"/>
+      <c r="I101" s="273"/>
+    </row>
+    <row r="102" spans="1:9" ht="76.5" hidden="1">
+      <c r="A102" s="568" t="s">
+        <v>757</v>
+      </c>
+      <c r="B102" s="569" t="s">
+        <v>758</v>
+      </c>
+      <c r="C102" s="151"/>
+      <c r="D102" s="152" t="s">
+        <v>671</v>
+      </c>
+      <c r="E102" s="162" t="s">
+        <v>527</v>
+      </c>
+      <c r="F102" s="57" t="s">
+        <v>657</v>
+      </c>
+      <c r="G102" s="167" t="s">
+        <v>761</v>
+      </c>
+      <c r="H102" s="164"/>
+      <c r="I102" s="275"/>
+    </row>
+    <row r="103" spans="1:9" ht="106.5" hidden="1">
+      <c r="A103" s="557" t="s">
+        <v>762</v>
+      </c>
+      <c r="B103" s="558" t="s">
+        <v>764</v>
+      </c>
+      <c r="C103" s="118"/>
+      <c r="D103" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E103" s="149" t="s">
+        <v>544</v>
+      </c>
+      <c r="F103" s="58" t="s">
+        <v>767</v>
+      </c>
+      <c r="G103" s="166" t="s">
+        <v>768</v>
+      </c>
+      <c r="H103" s="133"/>
+      <c r="I103" s="272"/>
+    </row>
+    <row r="104" spans="1:9" hidden="1">
+      <c r="A104" s="561" t="s">
+        <v>769</v>
+      </c>
+      <c r="B104" s="562" t="s">
+        <v>770</v>
+      </c>
+      <c r="C104" s="78"/>
+      <c r="D104" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E104" s="124" t="s">
+        <v>633</v>
+      </c>
+      <c r="F104" s="53" t="s">
+        <v>633</v>
+      </c>
+      <c r="G104" s="126" t="s">
+        <v>773</v>
+      </c>
+      <c r="H104" s="134"/>
+      <c r="I104" s="273"/>
+    </row>
+    <row r="105" spans="1:9" ht="198" hidden="1">
+      <c r="A105" s="561" t="s">
+        <v>774</v>
+      </c>
+      <c r="B105" s="562" t="s">
+        <v>775</v>
+      </c>
+      <c r="C105" s="78"/>
+      <c r="D105" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E105" s="124" t="s">
+        <v>777</v>
+      </c>
+      <c r="F105" s="53" t="s">
+        <v>778</v>
+      </c>
+      <c r="G105" s="126" t="s">
+        <v>779</v>
+      </c>
+      <c r="H105" s="134"/>
+      <c r="I105" s="273"/>
+    </row>
+    <row r="106" spans="1:9" ht="91.5" hidden="1">
+      <c r="A106" s="561" t="s">
+        <v>780</v>
+      </c>
+      <c r="B106" s="562" t="s">
+        <v>781</v>
+      </c>
+      <c r="C106" s="78"/>
+      <c r="D106" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E106" s="124" t="s">
+        <v>360</v>
+      </c>
+      <c r="F106" s="53" t="s">
+        <v>361</v>
+      </c>
+      <c r="G106" s="126" t="s">
+        <v>783</v>
+      </c>
+      <c r="H106" s="134"/>
+      <c r="I106" s="273"/>
+    </row>
+    <row r="107" spans="1:9" ht="91.5" hidden="1">
+      <c r="A107" s="561" t="s">
+        <v>784</v>
+      </c>
+      <c r="B107" s="562" t="s">
+        <v>785</v>
+      </c>
+      <c r="C107" s="78"/>
+      <c r="D107" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E107" s="124" t="s">
+        <v>788</v>
+      </c>
+      <c r="F107" s="53" t="s">
+        <v>789</v>
+      </c>
+      <c r="G107" s="126" t="s">
+        <v>790</v>
+      </c>
+      <c r="H107" s="134"/>
+      <c r="I107" s="273"/>
+    </row>
+    <row r="108" spans="1:9" ht="121.5" hidden="1">
+      <c r="A108" s="561" t="s">
+        <v>792</v>
+      </c>
+      <c r="B108" s="562" t="s">
+        <v>793</v>
+      </c>
+      <c r="C108" s="78"/>
+      <c r="D108" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E108" s="124" t="s">
+        <v>122</v>
+      </c>
+      <c r="F108" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="G108" s="126" t="s">
+        <v>795</v>
+      </c>
+      <c r="H108" s="134"/>
+      <c r="I108" s="273"/>
+    </row>
+    <row r="109" spans="1:9" ht="106.5" hidden="1">
+      <c r="A109" s="561" t="s">
+        <v>796</v>
+      </c>
+      <c r="B109" s="562" t="s">
+        <v>797</v>
+      </c>
+      <c r="C109" s="78"/>
+      <c r="D109" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E109" s="127" t="s">
+        <v>800</v>
+      </c>
+      <c r="F109" s="82" t="s">
+        <v>801</v>
+      </c>
+      <c r="G109" s="335" t="s">
+        <v>802</v>
+      </c>
+      <c r="H109" s="134"/>
+      <c r="I109" s="273"/>
+    </row>
+    <row r="110" spans="1:9" ht="396.75" hidden="1">
+      <c r="A110" s="561" t="s">
+        <v>804</v>
+      </c>
+      <c r="B110" s="562" t="s">
+        <v>805</v>
+      </c>
+      <c r="C110" s="78"/>
+      <c r="D110" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E110" s="124" t="s">
+        <v>808</v>
+      </c>
+      <c r="F110" s="53" t="s">
+        <v>809</v>
+      </c>
+      <c r="G110" s="335" t="s">
+        <v>810</v>
+      </c>
+      <c r="H110" s="134"/>
+      <c r="I110" s="273"/>
+    </row>
+    <row r="111" spans="1:9" ht="121.5" hidden="1">
+      <c r="A111" s="561" t="s">
+        <v>811</v>
+      </c>
+      <c r="B111" s="562" t="s">
+        <v>812</v>
+      </c>
+      <c r="C111" s="78"/>
+      <c r="D111" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E111" s="124" t="s">
+        <v>815</v>
+      </c>
+      <c r="F111" s="53" t="s">
+        <v>816</v>
+      </c>
+      <c r="G111" s="335" t="s">
+        <v>817</v>
+      </c>
+      <c r="H111" s="134"/>
+      <c r="I111" s="273"/>
+    </row>
+    <row r="112" spans="1:9" ht="167.25" hidden="1">
+      <c r="A112" s="561" t="s">
+        <v>819</v>
+      </c>
+      <c r="B112" s="562" t="s">
+        <v>820</v>
+      </c>
+      <c r="C112" s="78"/>
+      <c r="D112" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E112" s="124" t="s">
+        <v>823</v>
+      </c>
+      <c r="F112" s="53" t="s">
+        <v>824</v>
+      </c>
+      <c r="G112" s="335" t="s">
+        <v>825</v>
+      </c>
+      <c r="H112" s="134"/>
+      <c r="I112" s="273"/>
+    </row>
+    <row r="113" spans="1:9" ht="91.5" hidden="1">
+      <c r="A113" s="561" t="s">
+        <v>826</v>
+      </c>
+      <c r="B113" s="562" t="s">
+        <v>827</v>
+      </c>
+      <c r="C113" s="78"/>
+      <c r="D113" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E113" s="124" t="s">
+        <v>389</v>
+      </c>
+      <c r="F113" s="53" t="s">
+        <v>390</v>
+      </c>
+      <c r="G113" s="126" t="s">
+        <v>830</v>
+      </c>
+      <c r="H113" s="134"/>
+      <c r="I113" s="273"/>
+    </row>
+    <row r="114" spans="1:9" ht="60.75" hidden="1">
+      <c r="A114" s="561" t="s">
+        <v>832</v>
+      </c>
+      <c r="B114" s="562" t="s">
+        <v>833</v>
+      </c>
+      <c r="C114" s="78"/>
+      <c r="D114" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E114" s="124" t="s">
+        <v>527</v>
+      </c>
+      <c r="F114" s="53" t="s">
+        <v>657</v>
+      </c>
+      <c r="G114" s="335" t="s">
+        <v>836</v>
+      </c>
+      <c r="H114" s="134"/>
+      <c r="I114" s="273"/>
+    </row>
+    <row r="115" spans="1:9" ht="60.75" hidden="1">
+      <c r="A115" s="568" t="s">
+        <v>838</v>
+      </c>
+      <c r="B115" s="569" t="s">
+        <v>839</v>
+      </c>
+      <c r="C115" s="151"/>
+      <c r="D115" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E115" s="162" t="s">
+        <v>535</v>
+      </c>
+      <c r="F115" s="57" t="s">
+        <v>600</v>
+      </c>
+      <c r="G115" s="336" t="s">
+        <v>842</v>
+      </c>
+      <c r="H115" s="164"/>
+      <c r="I115" s="275"/>
+    </row>
+    <row r="116" spans="1:9" ht="91.5" hidden="1">
+      <c r="A116" s="557" t="s">
+        <v>844</v>
+      </c>
+      <c r="B116" s="558" t="s">
+        <v>846</v>
+      </c>
+      <c r="C116" s="118"/>
+      <c r="D116" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E116" s="149" t="s">
+        <v>788</v>
+      </c>
+      <c r="F116" s="58" t="s">
+        <v>789</v>
+      </c>
+      <c r="G116" s="169" t="s">
+        <v>848</v>
+      </c>
+      <c r="H116" s="133"/>
+      <c r="I116" s="272"/>
+    </row>
+    <row r="117" spans="1:9" ht="121.5" hidden="1">
+      <c r="A117" s="561" t="s">
+        <v>850</v>
+      </c>
+      <c r="B117" s="562" t="s">
+        <v>851</v>
+      </c>
+      <c r="C117" s="78"/>
+      <c r="D117" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E117" s="124" t="s">
+        <v>633</v>
+      </c>
+      <c r="F117" s="53" t="s">
+        <v>633</v>
+      </c>
+      <c r="G117" s="126" t="s">
+        <v>853</v>
+      </c>
+      <c r="H117" s="134"/>
+      <c r="I117" s="273"/>
+    </row>
+    <row r="118" spans="1:9" ht="121.5" hidden="1">
+      <c r="A118" s="561" t="s">
+        <v>854</v>
+      </c>
+      <c r="B118" s="562" t="s">
+        <v>855</v>
+      </c>
+      <c r="C118" s="78"/>
+      <c r="D118" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E118" s="124" t="s">
+        <v>857</v>
+      </c>
+      <c r="F118" s="53" t="s">
+        <v>858</v>
+      </c>
+      <c r="G118" s="128" t="s">
+        <v>859</v>
+      </c>
+      <c r="H118" s="134"/>
+      <c r="I118" s="273"/>
+    </row>
+    <row r="119" spans="1:9" ht="30.75" hidden="1">
+      <c r="A119" s="561" t="s">
+        <v>860</v>
+      </c>
+      <c r="B119" s="562" t="s">
+        <v>861</v>
+      </c>
+      <c r="C119" s="78"/>
+      <c r="D119" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E119" s="124" t="s">
+        <v>863</v>
+      </c>
+      <c r="F119" s="53" t="s">
+        <v>864</v>
+      </c>
+      <c r="G119" s="128" t="s">
+        <v>865</v>
+      </c>
+      <c r="H119" s="134"/>
+      <c r="I119" s="273"/>
+    </row>
+    <row r="120" spans="1:9" ht="30.75" hidden="1">
+      <c r="A120" s="561" t="s">
+        <v>866</v>
+      </c>
+      <c r="B120" s="562" t="s">
+        <v>867</v>
+      </c>
+      <c r="C120" s="78"/>
+      <c r="D120" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E120" s="124" t="s">
+        <v>870</v>
+      </c>
+      <c r="F120" s="53" t="s">
+        <v>871</v>
+      </c>
+      <c r="G120" s="128" t="s">
+        <v>872</v>
+      </c>
+      <c r="H120" s="134"/>
+      <c r="I120" s="273"/>
+    </row>
+    <row r="121" spans="1:9" ht="30.75" hidden="1">
+      <c r="A121" s="561" t="s">
+        <v>874</v>
+      </c>
+      <c r="B121" s="562" t="s">
+        <v>875</v>
+      </c>
+      <c r="C121" s="78"/>
+      <c r="D121" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E121" s="124" t="s">
+        <v>878</v>
+      </c>
+      <c r="F121" s="53" t="s">
+        <v>879</v>
+      </c>
+      <c r="G121" s="128" t="s">
+        <v>880</v>
+      </c>
+      <c r="H121" s="134"/>
+      <c r="I121" s="273"/>
+    </row>
+    <row r="122" spans="1:9" ht="336" hidden="1">
+      <c r="A122" s="563" t="s">
+        <v>882</v>
+      </c>
+      <c r="B122" s="564" t="s">
+        <v>883</v>
+      </c>
+      <c r="C122" s="213"/>
+      <c r="D122" s="214" t="s">
+        <v>375</v>
+      </c>
+      <c r="E122" s="244" t="s">
+        <v>886</v>
+      </c>
+      <c r="F122" s="245" t="s">
+        <v>887</v>
+      </c>
+      <c r="G122" s="246" t="s">
+        <v>888</v>
+      </c>
+      <c r="H122" s="218"/>
+      <c r="I122" s="274" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="198" hidden="1">
+      <c r="A123" s="563" t="s">
+        <v>891</v>
+      </c>
+      <c r="B123" s="564" t="s">
+        <v>892</v>
+      </c>
+      <c r="C123" s="213"/>
+      <c r="D123" s="214" t="s">
+        <v>375</v>
+      </c>
+      <c r="E123" s="244" t="s">
+        <v>894</v>
+      </c>
+      <c r="F123" s="245" t="s">
+        <v>895</v>
+      </c>
+      <c r="G123" s="246" t="s">
+        <v>896</v>
+      </c>
+      <c r="H123" s="218"/>
+      <c r="I123" s="274" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="91.5" hidden="1">
+      <c r="A124" s="561" t="s">
+        <v>899</v>
+      </c>
+      <c r="B124" s="562" t="s">
+        <v>900</v>
+      </c>
+      <c r="C124" s="78"/>
+      <c r="D124" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E124" s="124" t="s">
+        <v>903</v>
+      </c>
+      <c r="F124" s="53" t="s">
+        <v>904</v>
+      </c>
+      <c r="G124" s="128" t="s">
+        <v>905</v>
+      </c>
+      <c r="H124" s="134"/>
+      <c r="I124" s="273"/>
+    </row>
+    <row r="125" spans="1:9" ht="106.5" hidden="1">
+      <c r="A125" s="568" t="s">
+        <v>906</v>
+      </c>
+      <c r="B125" s="569" t="s">
+        <v>907</v>
+      </c>
+      <c r="C125" s="151"/>
+      <c r="D125" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E125" s="162" t="s">
+        <v>903</v>
+      </c>
+      <c r="F125" s="57" t="s">
+        <v>904</v>
+      </c>
+      <c r="G125" s="168" t="s">
+        <v>910</v>
+      </c>
+      <c r="H125" s="164"/>
+      <c r="I125" s="275"/>
+    </row>
+    <row r="126" spans="1:9" ht="167.25" hidden="1">
+      <c r="A126" s="592" t="s">
+        <v>912</v>
+      </c>
+      <c r="B126" s="558" t="s">
+        <v>914</v>
+      </c>
+      <c r="C126" s="170"/>
+      <c r="D126" s="171" t="s">
+        <v>671</v>
+      </c>
+      <c r="E126" s="149" t="s">
+        <v>672</v>
+      </c>
+      <c r="F126" s="58" t="s">
+        <v>673</v>
+      </c>
+      <c r="G126" s="166" t="s">
+        <v>674</v>
+      </c>
+      <c r="H126" s="133"/>
+      <c r="I126" s="272"/>
+    </row>
+    <row r="127" spans="1:9" ht="91.5" hidden="1">
+      <c r="A127" s="561" t="s">
+        <v>915</v>
+      </c>
+      <c r="B127" s="562" t="s">
+        <v>916</v>
+      </c>
+      <c r="C127" s="78"/>
+      <c r="D127" s="132" t="s">
+        <v>671</v>
+      </c>
+      <c r="E127" s="124" t="s">
+        <v>788</v>
+      </c>
+      <c r="F127" s="53" t="s">
+        <v>789</v>
+      </c>
+      <c r="G127" s="128" t="s">
+        <v>917</v>
+      </c>
+      <c r="H127" s="134"/>
+      <c r="I127" s="273"/>
+    </row>
+    <row r="128" spans="1:9" ht="198" hidden="1">
+      <c r="A128" s="561" t="s">
+        <v>919</v>
+      </c>
+      <c r="B128" s="562" t="s">
+        <v>920</v>
+      </c>
+      <c r="C128" s="78"/>
+      <c r="D128" s="132" t="s">
+        <v>671</v>
+      </c>
+      <c r="E128" s="124" t="s">
+        <v>923</v>
+      </c>
+      <c r="F128" s="53" t="s">
+        <v>673</v>
+      </c>
+      <c r="G128" s="128" t="s">
+        <v>924</v>
+      </c>
+      <c r="H128" s="134"/>
+      <c r="I128" s="273"/>
+    </row>
+    <row r="129" spans="1:9" ht="76.5" hidden="1">
+      <c r="A129" s="561" t="s">
+        <v>926</v>
+      </c>
+      <c r="B129" s="562" t="s">
+        <v>927</v>
+      </c>
+      <c r="C129" s="78"/>
+      <c r="D129" s="132" t="s">
+        <v>671</v>
+      </c>
+      <c r="E129" s="124" t="s">
+        <v>686</v>
+      </c>
+      <c r="F129" s="53" t="s">
+        <v>687</v>
+      </c>
+      <c r="G129" s="126" t="s">
+        <v>929</v>
+      </c>
+      <c r="H129" s="134"/>
+      <c r="I129" s="273"/>
+    </row>
+    <row r="130" spans="1:9" ht="213" hidden="1">
+      <c r="A130" s="561" t="s">
+        <v>931</v>
+      </c>
+      <c r="B130" s="562" t="s">
+        <v>932</v>
+      </c>
+      <c r="C130" s="78"/>
+      <c r="D130" s="132" t="s">
+        <v>671</v>
+      </c>
+      <c r="E130" s="124" t="s">
+        <v>695</v>
+      </c>
+      <c r="F130" s="53" t="s">
+        <v>696</v>
+      </c>
+      <c r="G130" s="126" t="s">
+        <v>697</v>
+      </c>
+      <c r="H130" s="134"/>
+      <c r="I130" s="273" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="152.25" hidden="1">
+      <c r="A131" s="561" t="s">
+        <v>934</v>
+      </c>
+      <c r="B131" s="562" t="s">
+        <v>935</v>
+      </c>
+      <c r="C131" s="78"/>
+      <c r="D131" s="132" t="s">
+        <v>671</v>
+      </c>
+      <c r="E131" s="124" t="s">
+        <v>703</v>
+      </c>
+      <c r="F131" s="53" t="s">
+        <v>704</v>
+      </c>
+      <c r="G131" s="126" t="s">
+        <v>705</v>
+      </c>
+      <c r="H131" s="134"/>
+      <c r="I131" s="273"/>
+    </row>
+    <row r="132" spans="1:9" ht="30.75" hidden="1">
+      <c r="A132" s="568" t="s">
+        <v>936</v>
+      </c>
+      <c r="B132" s="569" t="s">
+        <v>937</v>
+      </c>
+      <c r="C132" s="151"/>
+      <c r="D132" s="152" t="s">
+        <v>671</v>
+      </c>
+      <c r="E132" s="162" t="s">
+        <v>712</v>
+      </c>
+      <c r="F132" s="57" t="s">
+        <v>633</v>
+      </c>
+      <c r="G132" s="167" t="s">
+        <v>633</v>
+      </c>
+      <c r="H132" s="164"/>
+      <c r="I132" s="275" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="106.5" hidden="1">
+      <c r="A133" s="557" t="s">
+        <v>939</v>
+      </c>
+      <c r="B133" s="558" t="s">
+        <v>941</v>
+      </c>
+      <c r="C133" s="118"/>
+      <c r="D133" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E133" s="149" t="s">
+        <v>944</v>
+      </c>
+      <c r="F133" s="58" t="s">
+        <v>945</v>
+      </c>
+      <c r="G133" s="169" t="s">
+        <v>946</v>
+      </c>
+      <c r="H133" s="133"/>
+      <c r="I133" s="272"/>
+    </row>
+    <row r="134" spans="1:9" ht="106.5" hidden="1">
+      <c r="A134" s="561" t="s">
+        <v>948</v>
+      </c>
+      <c r="B134" s="562" t="s">
+        <v>949</v>
+      </c>
+      <c r="C134" s="78"/>
+      <c r="D134" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E134" s="124" t="s">
+        <v>788</v>
+      </c>
+      <c r="F134" s="53" t="s">
+        <v>789</v>
+      </c>
+      <c r="G134" s="128" t="s">
+        <v>951</v>
+      </c>
+      <c r="H134" s="134"/>
+      <c r="I134" s="273"/>
+    </row>
+    <row r="135" spans="1:9" ht="76.5" hidden="1">
+      <c r="A135" s="561" t="s">
+        <v>952</v>
+      </c>
+      <c r="B135" s="562" t="s">
+        <v>953</v>
+      </c>
+      <c r="C135" s="78"/>
+      <c r="D135" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E135" s="124" t="s">
+        <v>956</v>
+      </c>
+      <c r="F135" s="53" t="s">
+        <v>957</v>
+      </c>
+      <c r="G135" s="128" t="s">
+        <v>958</v>
+      </c>
+      <c r="H135" s="134"/>
+      <c r="I135" s="273" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="121.5" hidden="1">
+      <c r="A136" s="561" t="s">
+        <v>961</v>
+      </c>
+      <c r="B136" s="562" t="s">
+        <v>962</v>
+      </c>
+      <c r="C136" s="78"/>
+      <c r="D136" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E136" s="124" t="s">
+        <v>965</v>
+      </c>
+      <c r="F136" s="53" t="s">
+        <v>816</v>
+      </c>
+      <c r="G136" s="128" t="s">
+        <v>966</v>
+      </c>
+      <c r="H136" s="134"/>
+      <c r="I136" s="273"/>
+    </row>
+    <row r="137" spans="1:9" ht="183" hidden="1">
+      <c r="A137" s="561" t="s">
+        <v>968</v>
+      </c>
+      <c r="B137" s="562" t="s">
+        <v>969</v>
+      </c>
+      <c r="C137" s="78"/>
+      <c r="D137" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E137" s="124" t="s">
+        <v>389</v>
+      </c>
+      <c r="F137" s="53" t="s">
+        <v>390</v>
+      </c>
+      <c r="G137" s="128" t="s">
+        <v>972</v>
+      </c>
+      <c r="H137" s="134"/>
+      <c r="I137" s="273" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="76.5" hidden="1">
+      <c r="A138" s="561" t="s">
+        <v>975</v>
+      </c>
+      <c r="B138" s="562" t="s">
+        <v>976</v>
+      </c>
+      <c r="C138" s="78"/>
+      <c r="D138" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E138" s="124" t="s">
+        <v>979</v>
+      </c>
+      <c r="F138" s="53" t="s">
+        <v>428</v>
+      </c>
+      <c r="G138" s="128" t="s">
+        <v>980</v>
+      </c>
+      <c r="H138" s="134"/>
+      <c r="I138" s="273" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="60.75" hidden="1">
+      <c r="A139" s="568" t="s">
+        <v>983</v>
+      </c>
+      <c r="B139" s="569" t="s">
+        <v>984</v>
+      </c>
+      <c r="C139" s="151"/>
+      <c r="D139" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E139" s="124" t="s">
+        <v>979</v>
+      </c>
+      <c r="F139" s="53" t="s">
+        <v>428</v>
+      </c>
+      <c r="G139" s="168" t="s">
+        <v>986</v>
+      </c>
+      <c r="H139" s="164"/>
+      <c r="I139" s="275" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="198" hidden="1">
+      <c r="A140" s="557" t="s">
+        <v>989</v>
+      </c>
+      <c r="B140" s="558" t="s">
+        <v>991</v>
+      </c>
+      <c r="C140" s="118"/>
+      <c r="D140" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E140" s="149" t="s">
+        <v>994</v>
+      </c>
+      <c r="F140" s="58" t="s">
+        <v>995</v>
+      </c>
+      <c r="G140" s="169" t="s">
+        <v>996</v>
+      </c>
+      <c r="H140" s="133"/>
+      <c r="I140" s="272"/>
+    </row>
+    <row r="141" spans="1:9" ht="30.75" hidden="1">
+      <c r="A141" s="561" t="s">
+        <v>998</v>
+      </c>
+      <c r="B141" s="562" t="s">
+        <v>999</v>
+      </c>
+      <c r="C141" s="78"/>
+      <c r="D141" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E141" s="124" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F141" s="53" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G141" s="128" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H141" s="134"/>
+      <c r="I141" s="273"/>
+    </row>
+    <row r="142" spans="1:9" ht="60.75" hidden="1">
+      <c r="A142" s="561" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B142" s="562" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C142" s="78"/>
+      <c r="D142" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E142" s="124" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F142" s="53" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G142" s="128" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H142" s="134"/>
+      <c r="I142" s="273"/>
+    </row>
+    <row r="143" spans="1:9" ht="60.75" hidden="1">
+      <c r="A143" s="561" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B143" s="562" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C143" s="78"/>
+      <c r="D143" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E143" s="124" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F143" s="53" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G143" s="128" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H143" s="134"/>
+      <c r="I143" s="273"/>
+    </row>
+    <row r="144" spans="1:9" ht="45.75" hidden="1">
+      <c r="A144" s="561" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B144" s="562" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C144" s="78"/>
+      <c r="D144" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E144" s="124" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F144" s="53" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G144" s="128" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H144" s="134"/>
+      <c r="I144" s="273"/>
+    </row>
+    <row r="145" spans="1:9" ht="45.75" hidden="1">
+      <c r="A145" s="595" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B145" s="596" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C145" s="258"/>
+      <c r="D145" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E145" s="259"/>
+      <c r="F145" s="260"/>
+      <c r="G145" s="337" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H145" s="262"/>
+      <c r="I145" s="632" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="152.25" hidden="1">
+      <c r="A146" s="595" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B146" s="596" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C146" s="258"/>
+      <c r="D146" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E146" s="259"/>
+      <c r="F146" s="260"/>
+      <c r="G146" s="261" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H146" s="262"/>
+      <c r="I146" s="633" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="60.75" hidden="1">
+      <c r="A147" s="705" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B147" s="707" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C147" s="382"/>
+      <c r="D147" s="368"/>
+      <c r="E147" s="712"/>
+      <c r="F147" s="713"/>
+      <c r="G147" s="713" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H147" s="386"/>
+      <c r="I147" s="701" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="60.75" hidden="1">
+      <c r="A148" s="561" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B148" s="562" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C148" s="78"/>
+      <c r="D148" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E148" s="124" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F148" s="53" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G148" s="128" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H148" s="134"/>
+      <c r="I148" s="273"/>
+    </row>
+    <row r="149" spans="1:9" ht="45.75" hidden="1">
+      <c r="A149" s="725" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B149" s="747" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C149" s="58" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D149" s="735" t="s">
+        <v>173</v>
+      </c>
+      <c r="E149" s="752" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F149" s="753" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G149" s="750" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H149" s="751"/>
+      <c r="I149" s="740" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="121.5" hidden="1">
+      <c r="A150" s="725" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B150" s="729" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C150" s="734"/>
+      <c r="D150" s="735" t="s">
+        <v>173</v>
+      </c>
+      <c r="E150" s="736" t="s">
+        <v>815</v>
+      </c>
+      <c r="F150" s="737" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G150" s="738" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H150" s="739"/>
+      <c r="I150" s="740" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="45.75" hidden="1">
+      <c r="A151" s="561" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B151" s="562" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C151" s="78"/>
+      <c r="D151" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E151" s="124" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F151" s="53" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G151" s="128" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H151" s="134"/>
+      <c r="I151" s="273"/>
+    </row>
+    <row r="152" spans="1:9" ht="336" hidden="1">
+      <c r="A152" s="563" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B152" s="564" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C152" s="213"/>
+      <c r="D152" s="214" t="s">
+        <v>375</v>
+      </c>
+      <c r="E152" s="244" t="s">
+        <v>886</v>
+      </c>
+      <c r="F152" s="245" t="s">
+        <v>887</v>
+      </c>
+      <c r="G152" s="246" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H152" s="218"/>
+      <c r="I152" s="274" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="198" hidden="1">
+      <c r="A153" s="601" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B153" s="602" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C153" s="230"/>
+      <c r="D153" s="214" t="s">
+        <v>375</v>
+      </c>
+      <c r="E153" s="232" t="s">
+        <v>894</v>
+      </c>
+      <c r="F153" s="233" t="s">
+        <v>895</v>
+      </c>
+      <c r="G153" s="412" t="s">
+        <v>449</v>
+      </c>
+      <c r="H153" s="235"/>
+      <c r="I153" s="274" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="76.5" hidden="1">
+      <c r="A154" s="557" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B154" s="558" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C154" s="118"/>
+      <c r="D154" s="131" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E154" s="149" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F154" s="58" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G154" s="169" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H154" s="133"/>
+      <c r="I154" s="272" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="137.25" hidden="1">
+      <c r="A155" s="561" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B155" s="562" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C155" s="78"/>
+      <c r="D155" s="132" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E155" s="124" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F155" s="53" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G155" s="169" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H155" s="134"/>
+      <c r="I155" s="272" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="121.5" hidden="1">
+      <c r="A156" s="561" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B156" s="562" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C156" s="78"/>
+      <c r="D156" s="132" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E156" s="124" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F156" s="53" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G156" s="169" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H156" s="134"/>
+      <c r="I156" s="272" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="30.75" hidden="1">
+      <c r="A157" s="601" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B157" s="602" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C157" s="230"/>
+      <c r="D157" s="231"/>
+      <c r="E157" s="232" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F157" s="233" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G157" s="234"/>
+      <c r="H157" s="235"/>
+      <c r="I157" s="634" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="30.75" hidden="1">
+      <c r="A158" s="557" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B158" s="558" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C158" s="118"/>
+      <c r="D158" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E158" s="149" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F158" s="58" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G158" s="128" t="s">
+        <v>1115</v>
+      </c>
+      <c r="H158" s="133"/>
+      <c r="I158" s="272"/>
+    </row>
+    <row r="159" spans="1:9" ht="30.75" hidden="1">
+      <c r="A159" s="561" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B159" s="562" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C159" s="78"/>
+      <c r="D159" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E159" s="124" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F159" s="53" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G159" s="128" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H159" s="134"/>
+      <c r="I159" s="273"/>
+    </row>
+    <row r="160" spans="1:9" ht="137.25" hidden="1">
+      <c r="A160" s="584" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B160" s="585" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C160" s="145"/>
+      <c r="D160" s="423" t="s">
+        <v>375</v>
+      </c>
+      <c r="E160" s="203" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F160" s="204" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G160" s="205" t="s">
+        <v>1129</v>
+      </c>
+      <c r="H160" s="147"/>
+      <c r="I160" s="270"/>
+    </row>
+    <row r="161" spans="1:9" ht="30.75" hidden="1">
+      <c r="A161" s="605" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B161" s="605" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C161" s="78"/>
+      <c r="D161" s="418" t="s">
+        <v>375</v>
+      </c>
+      <c r="E161" s="53" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F161" s="53" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G161" s="53" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H161" s="419"/>
+      <c r="I161" s="273"/>
+    </row>
+    <row r="162" spans="1:9" hidden="1">
+      <c r="A162" s="607" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B162" s="608" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C162" s="475"/>
+      <c r="D162" s="476"/>
+      <c r="E162" s="462"/>
+      <c r="F162" s="463"/>
+      <c r="G162" s="464"/>
+      <c r="H162" s="477"/>
+      <c r="I162" s="478" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="229.5" hidden="1">
+      <c r="A163" s="557" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B163" s="558" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C163" s="118"/>
+      <c r="D163" s="131" t="s">
+        <v>671</v>
+      </c>
+      <c r="E163" s="149" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F163" s="58" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G163" s="169" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H163" s="133"/>
+      <c r="I163" s="272"/>
+    </row>
+    <row r="164" spans="1:9" ht="213" hidden="1">
+      <c r="A164" s="561" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B164" s="562" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C164" s="78"/>
+      <c r="D164" s="132" t="s">
+        <v>671</v>
+      </c>
+      <c r="E164" s="124" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F164" s="53" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G164" s="128" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H164" s="134"/>
+      <c r="I164" s="273"/>
+    </row>
+    <row r="165" spans="1:9" ht="60.75" hidden="1">
+      <c r="A165" s="563" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B165" s="564" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C165" s="78"/>
+      <c r="D165" s="243" t="s">
+        <v>671</v>
+      </c>
+      <c r="E165" s="244" t="s">
+        <v>633</v>
+      </c>
+      <c r="F165" s="245" t="s">
+        <v>633</v>
+      </c>
+      <c r="G165" s="246" t="s">
+        <v>1159</v>
+      </c>
+      <c r="H165" s="218"/>
+      <c r="I165" s="274" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="121.5" hidden="1">
+      <c r="A166" s="568" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B166" s="569" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C166" s="151"/>
+      <c r="D166" s="152" t="s">
+        <v>671</v>
+      </c>
+      <c r="E166" s="162" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F166" s="57" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G166" s="168" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H166" s="164"/>
+      <c r="I166" s="275"/>
+    </row>
+    <row r="167" spans="1:9" ht="152.25" hidden="1">
+      <c r="A167" s="557" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B167" s="558" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C167" s="118"/>
+      <c r="D167" s="131" t="s">
+        <v>671</v>
+      </c>
+      <c r="E167" s="149" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F167" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="G167" s="169" t="s">
+        <v>1176</v>
+      </c>
+      <c r="H167" s="133"/>
+      <c r="I167" s="272"/>
+    </row>
+    <row r="168" spans="1:9" ht="76.5" hidden="1">
+      <c r="A168" s="561" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B168" s="562" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C168" s="78"/>
+      <c r="D168" s="132" t="s">
+        <v>671</v>
+      </c>
+      <c r="E168" s="124" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F168" s="53" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G168" s="128" t="s">
+        <v>1183</v>
+      </c>
+      <c r="H168" s="134"/>
+      <c r="I168" s="273"/>
+    </row>
+    <row r="169" spans="1:9" ht="336" hidden="1">
+      <c r="A169" s="561" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B169" s="562" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C169" s="78"/>
+      <c r="D169" s="132" t="s">
+        <v>671</v>
+      </c>
+      <c r="E169" s="124" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F169" s="53" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G169" s="128" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H169" s="134"/>
+      <c r="I169" s="273"/>
+    </row>
+    <row r="170" spans="1:9" ht="60.75" hidden="1">
+      <c r="A170" s="561" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B170" s="562" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C170" s="78"/>
+      <c r="D170" s="132" t="s">
+        <v>671</v>
+      </c>
+      <c r="E170" s="124" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F170" s="53" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G170" s="128" t="s">
+        <v>122</v>
+      </c>
+      <c r="H170" s="134"/>
+      <c r="I170" s="273"/>
+    </row>
+    <row r="171" spans="1:9" ht="137.25" hidden="1">
+      <c r="A171" s="568" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B171" s="569" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C171" s="151"/>
+      <c r="D171" s="152" t="s">
+        <v>671</v>
+      </c>
+      <c r="E171" s="162" t="s">
+        <v>979</v>
+      </c>
+      <c r="F171" s="57" t="s">
+        <v>428</v>
+      </c>
+      <c r="G171" s="168" t="s">
+        <v>1203</v>
+      </c>
+      <c r="H171" s="164"/>
+      <c r="I171" s="275"/>
+    </row>
+    <row r="172" spans="1:9" ht="30.75" hidden="1">
+      <c r="A172" s="557" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B172" s="558" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C172" s="118"/>
+      <c r="D172" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E172" s="149" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F172" s="58" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G172" s="169" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H172" s="133"/>
+      <c r="I172" s="272"/>
+    </row>
+    <row r="173" spans="1:9" ht="76.5" hidden="1">
+      <c r="A173" s="563" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B173" s="564" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C173" s="78"/>
+      <c r="D173" s="214" t="s">
+        <v>375</v>
+      </c>
+      <c r="E173" s="244" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F173" s="245" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G173" s="414" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H173" s="218"/>
+      <c r="I173" s="274" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="30.75" hidden="1">
+      <c r="A174" s="561" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B174" s="562" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C174" s="78"/>
+      <c r="D174" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E174" s="124" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F174" s="53" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G174" s="128" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H174" s="134"/>
+      <c r="I174" s="273" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="30.75" hidden="1">
+      <c r="A175" s="561" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B175" s="562" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C175" s="78"/>
+      <c r="D175" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E175" s="124" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F175" s="53" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G175" s="128" t="s">
+        <v>1233</v>
+      </c>
+      <c r="H175" s="134"/>
+      <c r="I175" s="273"/>
+    </row>
+    <row r="176" spans="1:9" ht="152.25" hidden="1">
+      <c r="A176" s="561" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B176" s="562" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C176" s="78"/>
+      <c r="D176" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E176" s="124" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F176" s="53" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G176" s="128" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H176" s="134"/>
+      <c r="I176" s="273"/>
+    </row>
+    <row r="177" spans="1:9" ht="106.5" hidden="1">
+      <c r="A177" s="561" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B177" s="562" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C177" s="83"/>
+      <c r="D177" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E177" s="124" t="s">
+        <v>633</v>
+      </c>
+      <c r="F177" s="53" t="s">
+        <v>633</v>
+      </c>
+      <c r="G177" s="128" t="s">
+        <v>1247</v>
+      </c>
+      <c r="H177" s="134"/>
+      <c r="I177" s="273"/>
+    </row>
+    <row r="178" spans="1:9" ht="45.75" hidden="1">
+      <c r="A178" s="595" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B178" s="596" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C178" s="258"/>
+      <c r="D178" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E178" s="259"/>
+      <c r="F178" s="260"/>
+      <c r="G178" s="337" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H178" s="262"/>
+      <c r="I178" s="276"/>
+    </row>
+    <row r="179" spans="1:9" ht="137.25" hidden="1">
+      <c r="A179" s="563" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B179" s="564" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C179" s="213"/>
+      <c r="D179" s="214" t="s">
+        <v>375</v>
+      </c>
+      <c r="E179" s="244" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F179" s="245" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G179" s="246" t="s">
+        <v>1255</v>
+      </c>
+      <c r="H179" s="218"/>
+      <c r="I179" s="635" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="198" hidden="1">
+      <c r="A180" s="561" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B180" s="562" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C180" s="78"/>
+      <c r="D180" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E180" s="124" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F180" s="53" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G180" s="128" t="s">
+        <v>1263</v>
+      </c>
+      <c r="H180" s="134"/>
+      <c r="I180" s="273"/>
+    </row>
+    <row r="181" spans="1:9" ht="137.25" hidden="1">
+      <c r="A181" s="561" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B181" s="562" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C181" s="78"/>
+      <c r="D181" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E181" s="124" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F181" s="53" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G181" s="128" t="s">
+        <v>1271</v>
+      </c>
+      <c r="H181" s="134"/>
+      <c r="I181" s="273"/>
+    </row>
+    <row r="182" spans="1:9" ht="30.75" hidden="1">
+      <c r="A182" s="561" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B182" s="562" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C182" s="78"/>
+      <c r="D182" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E182" s="124" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F182" s="53" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G182" s="128" t="s">
+        <v>1279</v>
+      </c>
+      <c r="H182" s="134"/>
+      <c r="I182" s="273" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="106.5" hidden="1">
+      <c r="A183" s="568" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B183" s="569" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C183" s="151"/>
+      <c r="D183" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E183" s="338" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F183" s="339" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G183" s="168" t="s">
+        <v>1287</v>
+      </c>
+      <c r="H183" s="164"/>
+      <c r="I183" s="275"/>
+    </row>
+    <row r="184" spans="1:9" ht="106.5" hidden="1">
+      <c r="A184" s="557" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B184" s="558" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C184" s="118"/>
+      <c r="D184" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E184" s="149" t="s">
+        <v>544</v>
+      </c>
+      <c r="F184" s="58" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G184" s="169" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H184" s="133"/>
+      <c r="I184" s="272"/>
+    </row>
+    <row r="185" spans="1:9" ht="91.5" hidden="1">
+      <c r="A185" s="563" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B185" s="564" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C185" s="213"/>
+      <c r="D185" s="214" t="s">
+        <v>375</v>
+      </c>
+      <c r="E185" s="244" t="s">
+        <v>633</v>
+      </c>
+      <c r="F185" s="245" t="s">
+        <v>633</v>
+      </c>
+      <c r="G185" s="414" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H185" s="218"/>
+      <c r="I185" s="274" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="60.75" hidden="1">
+      <c r="A186" s="561" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B186" s="562" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C186" s="78"/>
+      <c r="D186" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E186" s="124" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F186" s="53" t="s">
+        <v>1303</v>
+      </c>
+      <c r="G186" s="169" t="s">
+        <v>1304</v>
+      </c>
+      <c r="H186" s="134"/>
+      <c r="I186" s="273" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="121.5" hidden="1">
+      <c r="A187" s="561" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B187" s="562" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C187" s="78"/>
+      <c r="D187" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E187" s="124" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F187" s="53" t="s">
+        <v>1311</v>
+      </c>
+      <c r="G187" s="169" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H187" s="134"/>
+      <c r="I187" s="273"/>
+    </row>
+    <row r="188" spans="1:9" ht="30.75" hidden="1">
+      <c r="A188" s="561" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B188" s="562" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C188" s="78"/>
+      <c r="D188" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E188" s="124" t="s">
+        <v>979</v>
+      </c>
+      <c r="F188" s="53" t="s">
+        <v>1317</v>
+      </c>
+      <c r="G188" s="169" t="s">
+        <v>1318</v>
+      </c>
+      <c r="H188" s="134"/>
+      <c r="I188" s="273"/>
+    </row>
+    <row r="189" spans="1:9" ht="45.75" hidden="1">
+      <c r="A189" s="612" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B189" s="613" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C189" s="284"/>
+      <c r="D189" s="423" t="s">
+        <v>375</v>
+      </c>
+      <c r="E189" s="285"/>
+      <c r="F189" s="286"/>
+      <c r="G189" s="424" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H189" s="287"/>
+      <c r="I189" s="636" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="60.75" hidden="1">
+      <c r="A190" s="615" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B190" s="615" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C190" s="453"/>
+      <c r="D190" s="454" t="s">
+        <v>375</v>
+      </c>
+      <c r="E190" s="455"/>
+      <c r="F190" s="455"/>
+      <c r="G190" s="455" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H190" s="456"/>
+      <c r="I190" s="457" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" hidden="1">
+      <c r="A191" s="555" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B191" s="556" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C191" s="434"/>
+      <c r="D191" s="436"/>
+      <c r="E191" s="384"/>
+      <c r="F191" s="384"/>
+      <c r="G191" s="384"/>
+      <c r="H191" s="437"/>
+      <c r="I191" s="438" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" hidden="1">
+      <c r="A192" s="571" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B192" s="572" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C192" s="442"/>
+      <c r="D192" s="444"/>
+      <c r="E192" s="429"/>
+      <c r="F192" s="429"/>
+      <c r="G192" s="429"/>
+      <c r="H192" s="445"/>
+      <c r="I192" s="438" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="30.75" hidden="1">
+      <c r="A193" s="619" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B193" s="619" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C193" s="306"/>
+      <c r="D193" s="307" t="s">
+        <v>671</v>
+      </c>
+      <c r="E193" s="308"/>
+      <c r="F193" s="308"/>
+      <c r="G193" s="308" t="s">
+        <v>1335</v>
+      </c>
+      <c r="H193" s="309"/>
+      <c r="I193" s="310"/>
+    </row>
+    <row r="194" spans="1:9" ht="45.75" hidden="1">
+      <c r="A194" s="621" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B194" s="621" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C194" s="258"/>
+      <c r="D194" s="298" t="s">
+        <v>671</v>
+      </c>
+      <c r="E194" s="260"/>
+      <c r="F194" s="260"/>
+      <c r="G194" s="337" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H194" s="299"/>
+      <c r="I194" s="276"/>
+    </row>
+    <row r="195" spans="1:9" ht="198" hidden="1">
+      <c r="A195" s="557" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B195" s="558" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C195" s="118"/>
+      <c r="D195" s="131" t="s">
+        <v>671</v>
+      </c>
+      <c r="E195" s="149" t="s">
+        <v>923</v>
+      </c>
+      <c r="F195" s="58" t="s">
+        <v>673</v>
+      </c>
+      <c r="G195" s="128" t="s">
+        <v>674</v>
+      </c>
+      <c r="H195" s="133"/>
+      <c r="I195" s="272"/>
+    </row>
+    <row r="196" spans="1:9" ht="76.5" hidden="1">
+      <c r="A196" s="563" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B196" s="564" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C196" s="213"/>
+      <c r="D196" s="243" t="s">
+        <v>671</v>
+      </c>
+      <c r="E196" s="244" t="s">
+        <v>633</v>
+      </c>
+      <c r="F196" s="245" t="s">
+        <v>633</v>
+      </c>
+      <c r="G196" s="414" t="s">
+        <v>1344</v>
+      </c>
+      <c r="H196" s="218"/>
+      <c r="I196" s="274" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="76.5" hidden="1">
+      <c r="A197" s="561" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B197" s="562" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C197" s="78"/>
+      <c r="D197" s="132" t="s">
+        <v>671</v>
+      </c>
+      <c r="E197" s="124" t="s">
+        <v>686</v>
+      </c>
+      <c r="F197" s="53" t="s">
+        <v>687</v>
+      </c>
+      <c r="G197" s="126" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H197" s="134"/>
+      <c r="I197" s="273"/>
+    </row>
+    <row r="198" spans="1:9" ht="213" hidden="1">
+      <c r="A198" s="561" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B198" s="562" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C198" s="78"/>
+      <c r="D198" s="132" t="s">
+        <v>671</v>
+      </c>
+      <c r="E198" s="124" t="s">
+        <v>695</v>
+      </c>
+      <c r="F198" s="53" t="s">
+        <v>696</v>
+      </c>
+      <c r="G198" s="126" t="s">
+        <v>697</v>
+      </c>
+      <c r="H198" s="134"/>
+      <c r="I198" s="273"/>
+    </row>
+    <row r="199" spans="1:9" ht="152.25" hidden="1">
+      <c r="A199" s="584" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B199" s="585" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C199" s="145"/>
+      <c r="D199" s="146" t="s">
+        <v>671</v>
+      </c>
+      <c r="E199" s="203" t="s">
+        <v>695</v>
+      </c>
+      <c r="F199" s="204" t="s">
+        <v>704</v>
+      </c>
+      <c r="G199" s="204" t="s">
+        <v>705</v>
+      </c>
+      <c r="H199" s="147"/>
+      <c r="I199" s="270"/>
+    </row>
+    <row r="200" spans="1:9" hidden="1">
+      <c r="A200" s="555" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B200" s="556" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C200" s="442"/>
+      <c r="D200" s="492" t="s">
+        <v>671</v>
+      </c>
+      <c r="E200" s="480"/>
+      <c r="F200" s="429"/>
+      <c r="G200" s="481"/>
+      <c r="H200" s="493"/>
+      <c r="I200" s="446" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="183" hidden="1">
+      <c r="A201" s="557" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B201" s="558" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C201" s="118"/>
+      <c r="D201" s="131" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E201" s="149" t="s">
+        <v>633</v>
+      </c>
+      <c r="F201" s="58" t="s">
+        <v>633</v>
+      </c>
+      <c r="G201" s="169" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H201" s="133"/>
+      <c r="I201" s="272"/>
+    </row>
+    <row r="202" spans="1:9" ht="60.75" hidden="1">
+      <c r="A202" s="561" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B202" s="562" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C202" s="78"/>
+      <c r="D202" s="132" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E202" s="124" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F202" s="124" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G202" s="128" t="s">
+        <v>1367</v>
+      </c>
+      <c r="H202" s="134"/>
+      <c r="I202" s="273"/>
+    </row>
+    <row r="203" spans="1:9" ht="213" hidden="1">
+      <c r="A203" s="561" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B203" s="562" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C203" s="78"/>
+      <c r="D203" s="132" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E203" s="124" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F203" s="53" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G203" s="128" t="s">
+        <v>1372</v>
+      </c>
+      <c r="H203" s="134"/>
+      <c r="I203" s="273"/>
+    </row>
+    <row r="204" spans="1:9" ht="30.75" hidden="1">
+      <c r="A204" s="561" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B204" s="562" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C204" s="78"/>
+      <c r="D204" s="132" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E204" s="124" t="s">
+        <v>979</v>
+      </c>
+      <c r="F204" s="53" t="s">
+        <v>428</v>
+      </c>
+      <c r="G204" s="128" t="s">
+        <v>1377</v>
+      </c>
+      <c r="H204" s="134"/>
+      <c r="I204" s="273"/>
+    </row>
+    <row r="205" spans="1:9" ht="30.75" hidden="1">
+      <c r="A205" s="568" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B205" s="569" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C205" s="151"/>
+      <c r="D205" s="152" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E205" s="124" t="s">
+        <v>979</v>
+      </c>
+      <c r="F205" s="53" t="s">
+        <v>428</v>
+      </c>
+      <c r="G205" s="168" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H205" s="164"/>
+      <c r="I205" s="275"/>
+    </row>
+    <row r="206" spans="1:9" ht="183" hidden="1">
+      <c r="A206" s="557" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B206" s="558" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C206" s="118"/>
+      <c r="D206" s="131"/>
+      <c r="E206" s="149" t="s">
+        <v>609</v>
+      </c>
+      <c r="F206" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="G206" s="169" t="s">
+        <v>1388</v>
+      </c>
+      <c r="H206" s="133"/>
+      <c r="I206" s="272"/>
+    </row>
+    <row r="207" spans="1:9" ht="30.75" hidden="1">
+      <c r="A207" s="563" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B207" s="564" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C207" s="213"/>
+      <c r="D207" s="243"/>
+      <c r="E207" s="244" t="s">
+        <v>633</v>
+      </c>
+      <c r="F207" s="245" t="s">
+        <v>1393</v>
+      </c>
+      <c r="G207" s="414" t="s">
+        <v>1394</v>
+      </c>
+      <c r="H207" s="218"/>
+      <c r="I207" s="274"/>
+    </row>
+    <row r="208" spans="1:9" ht="167.25" hidden="1">
+      <c r="A208" s="561" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B208" s="562" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C208" s="78"/>
+      <c r="D208" s="132"/>
+      <c r="E208" s="124" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F208" s="53" t="s">
+        <v>368</v>
+      </c>
+      <c r="G208" s="128" t="s">
+        <v>1400</v>
+      </c>
+      <c r="H208" s="134"/>
+      <c r="I208" s="273"/>
+    </row>
+    <row r="209" spans="1:9" ht="167.25" hidden="1">
+      <c r="A209" s="561" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B209" s="562" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C209" s="78"/>
+      <c r="D209" s="132"/>
+      <c r="E209" s="124" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F209" s="53" t="s">
+        <v>421</v>
+      </c>
+      <c r="G209" s="128" t="s">
+        <v>1400</v>
+      </c>
+      <c r="H209" s="134"/>
+      <c r="I209" s="273"/>
+    </row>
+    <row r="210" spans="1:9" ht="152.25" hidden="1">
+      <c r="A210" s="496" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B210" s="497" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C210" s="453"/>
+      <c r="D210" s="502"/>
+      <c r="E210" s="503"/>
+      <c r="F210" s="455"/>
+      <c r="G210" s="414" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H210" s="504"/>
+      <c r="I210" s="457"/>
+    </row>
+    <row r="211" spans="1:9" ht="106.5" hidden="1">
+      <c r="A211" s="584" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B211" s="585" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C211" s="145"/>
+      <c r="D211" s="146"/>
+      <c r="E211" s="203" t="s">
+        <v>376</v>
+      </c>
+      <c r="F211" s="204" t="s">
+        <v>428</v>
+      </c>
+      <c r="G211" s="205" t="s">
+        <v>1411</v>
+      </c>
+      <c r="H211" s="147"/>
+      <c r="I211" s="270"/>
+    </row>
+    <row r="212" spans="1:9" ht="45.75" hidden="1">
+      <c r="A212" s="555" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B212" s="556" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C212" s="442"/>
+      <c r="D212" s="492"/>
+      <c r="E212" s="480"/>
+      <c r="F212" s="429"/>
+      <c r="G212" s="510"/>
+      <c r="H212" s="493"/>
+      <c r="I212" s="446" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="137.25" hidden="1">
+      <c r="A213" s="557" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B213" s="558" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C213" s="118"/>
+      <c r="D213" s="131" t="s">
+        <v>173</v>
+      </c>
+      <c r="E213" s="149" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F213" s="58" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G213" s="169" t="s">
+        <v>1422</v>
+      </c>
+      <c r="H213" s="133"/>
+      <c r="I213" s="272"/>
+    </row>
+    <row r="214" spans="1:9" ht="137.25" hidden="1">
+      <c r="A214" s="561" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B214" s="562" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C214" s="78"/>
+      <c r="D214" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E214" s="124" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F214" s="53" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G214" s="128" t="s">
+        <v>1428</v>
+      </c>
+      <c r="H214" s="134"/>
+      <c r="I214" s="273"/>
+    </row>
+    <row r="215" spans="1:9" ht="198" hidden="1">
+      <c r="A215" s="561" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B215" s="562" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C215" s="78"/>
+      <c r="D215" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E215" s="124" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F215" s="53" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G215" s="128" t="s">
+        <v>1434</v>
+      </c>
+      <c r="H215" s="134"/>
+      <c r="I215" s="273" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" ht="137.25" hidden="1">
+      <c r="A216" s="561" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B216" s="562" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C216" s="78"/>
+      <c r="D216" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E216" s="124" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F216" s="53" t="s">
+        <v>1441</v>
+      </c>
+      <c r="G216" s="128" t="s">
+        <v>1442</v>
+      </c>
+      <c r="H216" s="134"/>
+      <c r="I216" s="273"/>
+    </row>
+    <row r="217" spans="1:9" ht="137.25" hidden="1">
+      <c r="A217" s="568" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B217" s="569" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C217" s="151"/>
+      <c r="D217" s="152" t="s">
+        <v>173</v>
+      </c>
+      <c r="E217" s="124" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F217" s="57" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G217" s="168" t="s">
+        <v>1449</v>
+      </c>
+      <c r="H217" s="164"/>
+      <c r="I217" s="275"/>
+    </row>
+    <row r="218" spans="1:9" ht="106.5" hidden="1">
+      <c r="A218" s="667" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B218" s="668" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C218" s="118"/>
+      <c r="D218" s="214" t="s">
+        <v>375</v>
+      </c>
+      <c r="E218" s="680" t="s">
+        <v>544</v>
+      </c>
+      <c r="F218" s="681" t="s">
+        <v>1456</v>
+      </c>
+      <c r="G218" s="682" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H218" s="683"/>
+      <c r="I218" s="670" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="167.25" hidden="1">
+      <c r="A219" s="674" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B219" s="675" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C219" s="78"/>
+      <c r="D219" s="214" t="s">
+        <v>375</v>
+      </c>
+      <c r="E219" s="244" t="s">
+        <v>1463</v>
+      </c>
+      <c r="F219" s="244" t="s">
+        <v>1464</v>
+      </c>
+      <c r="G219" s="414" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H219" s="218"/>
+      <c r="I219" s="677" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" ht="60.75" hidden="1">
+      <c r="A220" s="641" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B220" s="661" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C220" s="78"/>
+      <c r="D220" s="368"/>
+      <c r="E220" s="383"/>
+      <c r="F220" s="383"/>
+      <c r="G220" s="357"/>
+      <c r="H220" s="383" t="s">
+        <v>1470</v>
+      </c>
+      <c r="I220" s="661" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" ht="45.75" hidden="1">
+      <c r="A221" s="641" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B221" s="661" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C221" s="78"/>
+      <c r="D221" s="368"/>
+      <c r="E221" s="383"/>
+      <c r="F221" s="383"/>
+      <c r="G221" s="383"/>
+      <c r="H221" s="383" t="s">
+        <v>1473</v>
+      </c>
+      <c r="I221" s="661" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" ht="121.5" hidden="1">
+      <c r="A222" s="641" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B222" s="661" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C222" s="78"/>
+      <c r="D222" s="368" t="s">
+        <v>375</v>
+      </c>
+      <c r="E222" s="383" t="s">
+        <v>815</v>
+      </c>
+      <c r="F222" s="384" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G222" s="656" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H222" s="386"/>
+      <c r="I222" s="661" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="106.5" hidden="1">
+      <c r="A223" s="646" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B223" s="662" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C223" s="78"/>
+      <c r="D223" s="368" t="s">
+        <v>375</v>
+      </c>
+      <c r="E223" s="383" t="s">
+        <v>376</v>
+      </c>
+      <c r="F223" s="384" t="s">
+        <v>428</v>
+      </c>
+      <c r="G223" s="656" t="s">
+        <v>1486</v>
+      </c>
+      <c r="H223" s="386"/>
+      <c r="I223" s="662" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="121.5" hidden="1">
+      <c r="A224" s="575" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B224" s="663" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C224" s="78"/>
+      <c r="D224" s="368" t="s">
+        <v>375</v>
+      </c>
+      <c r="E224" s="383" t="s">
+        <v>815</v>
+      </c>
+      <c r="F224" s="384" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G224" s="656" t="s">
+        <v>1493</v>
+      </c>
+      <c r="H224" s="386"/>
+      <c r="I224" s="663" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" ht="91.5" hidden="1">
+      <c r="A225" s="575" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B225" s="663" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C225" s="78"/>
+      <c r="D225" s="368" t="s">
+        <v>375</v>
+      </c>
+      <c r="E225" s="383" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F225" s="384" t="s">
+        <v>428</v>
+      </c>
+      <c r="G225" s="656" t="s">
+        <v>1501</v>
+      </c>
+      <c r="H225" s="386"/>
+      <c r="I225" s="663" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="91.5" hidden="1">
+      <c r="A226" s="651" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B226" s="664" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C226" s="151"/>
+      <c r="D226" s="368" t="s">
+        <v>375</v>
+      </c>
+      <c r="E226" s="480" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F226" s="384" t="s">
+        <v>428</v>
+      </c>
+      <c r="G226" s="510" t="s">
+        <v>1508</v>
+      </c>
+      <c r="H226" s="657"/>
+      <c r="I226" s="664" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" ht="121.5" hidden="1">
+      <c r="A227" s="557" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B227" s="558" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C227" s="118"/>
+      <c r="D227" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E227" s="149" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F227" s="149" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G227" s="169" t="s">
+        <v>1518</v>
+      </c>
+      <c r="H227" s="133"/>
+      <c r="I227" s="272"/>
+    </row>
+    <row r="228" spans="1:9" ht="45.75" hidden="1">
+      <c r="A228" s="561" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B228" s="562" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C228" s="78"/>
+      <c r="D228" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E228" s="149" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F228" s="149" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G228" s="128" t="s">
+        <v>1523</v>
+      </c>
+      <c r="H228" s="134"/>
+      <c r="I228" s="273"/>
+    </row>
+    <row r="229" spans="1:9" ht="45.75" hidden="1">
+      <c r="A229" s="561" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B229" s="562" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C229" s="78"/>
+      <c r="D229" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E229" s="149" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F229" s="149" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G229" s="128" t="s">
+        <v>1528</v>
+      </c>
+      <c r="H229" s="134"/>
+      <c r="I229" s="273"/>
+    </row>
+    <row r="230" spans="1:9" ht="198" hidden="1">
+      <c r="A230" s="561" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B230" s="562" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C230" s="78"/>
+      <c r="D230" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E230" s="124" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F230" s="53" t="s">
+        <v>1535</v>
+      </c>
+      <c r="G230" s="341" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H230" s="134"/>
+      <c r="I230" s="273"/>
+    </row>
+    <row r="231" spans="1:9" ht="137.25" hidden="1">
+      <c r="A231" s="561" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B231" s="562" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C231" s="78"/>
+      <c r="D231" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E231" s="124" t="s">
+        <v>1542</v>
+      </c>
+      <c r="F231" s="53" t="s">
+        <v>1543</v>
+      </c>
+      <c r="G231" s="128" t="s">
+        <v>1544</v>
+      </c>
+      <c r="H231" s="134"/>
+      <c r="I231" s="273"/>
+    </row>
+    <row r="232" spans="1:9" ht="137.25" hidden="1">
+      <c r="A232" s="561" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B232" s="562" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C232" s="78"/>
+      <c r="D232" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E232" s="124" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F232" s="53" t="s">
+        <v>1551</v>
+      </c>
+      <c r="G232" s="128" t="s">
+        <v>1552</v>
+      </c>
+      <c r="H232" s="134"/>
+      <c r="I232" s="273"/>
+    </row>
+    <row r="233" spans="1:9" ht="137.25" hidden="1">
+      <c r="A233" s="561" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B233" s="562" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C233" s="78"/>
+      <c r="D233" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E233" s="124" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F233" s="53" t="s">
+        <v>1559</v>
+      </c>
+      <c r="G233" s="128" t="s">
+        <v>1560</v>
+      </c>
+      <c r="H233" s="134"/>
+      <c r="I233" s="273"/>
+    </row>
+    <row r="234" spans="1:9" ht="137.25" hidden="1">
+      <c r="A234" s="561" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B234" s="562" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C234" s="78"/>
+      <c r="D234" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E234" s="124" t="s">
+        <v>1566</v>
+      </c>
+      <c r="F234" s="53" t="s">
+        <v>1567</v>
+      </c>
+      <c r="G234" s="128" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H234" s="134"/>
+      <c r="I234" s="273"/>
+    </row>
+    <row r="235" spans="1:9" ht="106.5" hidden="1">
+      <c r="A235" s="561" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B235" s="562" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C235" s="78"/>
+      <c r="D235" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E235" s="124" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F235" s="53" t="s">
+        <v>421</v>
+      </c>
+      <c r="G235" s="128" t="s">
+        <v>1574</v>
+      </c>
+      <c r="H235" s="134"/>
+      <c r="I235" s="273"/>
+    </row>
+    <row r="236" spans="1:9" ht="60.75" hidden="1">
+      <c r="A236" s="561" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B236" s="562" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C236" s="78"/>
+      <c r="D236" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E236" s="162" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F236" s="53" t="s">
+        <v>1580</v>
+      </c>
+      <c r="G236" s="128" t="s">
+        <v>1581</v>
+      </c>
+      <c r="H236" s="134"/>
+      <c r="I236" s="273"/>
+    </row>
+    <row r="237" spans="1:9" ht="91.5" hidden="1">
+      <c r="A237" s="561" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B237" s="562" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C237" s="78"/>
+      <c r="D237" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E237" s="124" t="s">
+        <v>1585</v>
+      </c>
+      <c r="F237" s="53" t="s">
+        <v>1586</v>
+      </c>
+      <c r="G237" s="128" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H237" s="134"/>
+      <c r="I237" s="273"/>
+    </row>
+    <row r="238" spans="1:9" ht="60.75" hidden="1">
+      <c r="A238" s="568" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B238" s="569" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C238" s="151"/>
+      <c r="D238" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="E238" s="162" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F238" s="57" t="s">
+        <v>1591</v>
+      </c>
+      <c r="G238" s="168" t="s">
+        <v>1592</v>
+      </c>
+      <c r="H238" s="164"/>
+      <c r="I238" s="275"/>
+    </row>
+    <row r="239" spans="1:9" ht="121.5" hidden="1">
+      <c r="A239" s="557" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B239" s="558" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C239" s="118"/>
+      <c r="D239" s="131" t="s">
+        <v>173</v>
+      </c>
+      <c r="E239" s="149" t="s">
+        <v>544</v>
+      </c>
+      <c r="F239" s="58" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G239" s="169" t="s">
+        <v>1599</v>
+      </c>
+      <c r="H239" s="133"/>
+      <c r="I239" s="272"/>
+    </row>
+    <row r="240" spans="1:9" ht="30.75" hidden="1">
+      <c r="A240" s="561" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B240" s="562" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C240" s="78"/>
+      <c r="D240" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E240" s="124"/>
+      <c r="F240" s="53"/>
+      <c r="G240" s="128" t="s">
+        <v>1603</v>
+      </c>
+      <c r="H240" s="134"/>
+      <c r="I240" s="273"/>
+    </row>
+    <row r="241" spans="1:9" ht="121.5" hidden="1">
+      <c r="A241" s="561" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B241" s="562" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C241" s="78"/>
+      <c r="D241" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E241" s="124" t="s">
+        <v>815</v>
+      </c>
+      <c r="F241" s="53" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G241" s="128" t="s">
+        <v>1607</v>
+      </c>
+      <c r="H241" s="134"/>
+      <c r="I241" s="273"/>
+    </row>
+    <row r="242" spans="1:9" ht="121.5" hidden="1">
+      <c r="A242" s="563" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B242" s="564" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C242" s="78"/>
+      <c r="D242" s="243" t="s">
+        <v>173</v>
+      </c>
+      <c r="E242" s="244" t="s">
+        <v>815</v>
+      </c>
+      <c r="F242" s="245" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G242" s="246" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H242" s="218"/>
+      <c r="I242" s="274" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" ht="137.25" hidden="1">
+      <c r="A243" s="561" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B243" s="562" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C243" s="78"/>
+      <c r="D243" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E243" s="124" t="s">
+        <v>815</v>
+      </c>
+      <c r="F243" s="53" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G243" s="128" t="s">
+        <v>1615</v>
+      </c>
+      <c r="H243" s="134"/>
+      <c r="I243" s="273"/>
+    </row>
+    <row r="244" spans="1:9" ht="121.5" hidden="1">
+      <c r="A244" s="561" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B244" s="562" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C244" s="78"/>
+      <c r="D244" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E244" s="124" t="s">
+        <v>815</v>
+      </c>
+      <c r="F244" s="53" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G244" s="128" t="s">
+        <v>1620</v>
+      </c>
+      <c r="H244" s="134"/>
+      <c r="I244" s="273"/>
+    </row>
+    <row r="245" spans="1:9" ht="121.5" hidden="1">
+      <c r="A245" s="561" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B245" s="562" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C245" s="78"/>
+      <c r="D245" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E245" s="124" t="s">
+        <v>815</v>
+      </c>
+      <c r="F245" s="53" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G245" s="128" t="s">
+        <v>1625</v>
+      </c>
+      <c r="H245" s="134"/>
+      <c r="I245" s="273"/>
+    </row>
+    <row r="246" spans="1:9" ht="121.5" hidden="1">
+      <c r="A246" s="561" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B246" s="562" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C246" s="78"/>
+      <c r="D246" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E246" s="124" t="s">
+        <v>815</v>
+      </c>
+      <c r="F246" s="53" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G246" s="128" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H246" s="134"/>
+      <c r="I246" s="273"/>
+    </row>
+    <row r="247" spans="1:9" ht="121.5" hidden="1">
+      <c r="A247" s="561" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B247" s="562" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C247" s="78"/>
+      <c r="D247" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E247" s="124" t="s">
+        <v>815</v>
+      </c>
+      <c r="F247" s="53" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G247" s="128" t="s">
+        <v>1635</v>
+      </c>
+      <c r="H247" s="134"/>
+      <c r="I247" s="273"/>
+    </row>
+    <row r="248" spans="1:9" ht="121.5" hidden="1">
+      <c r="A248" s="561" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B248" s="562" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C248" s="78"/>
+      <c r="D248" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E248" s="124" t="s">
+        <v>815</v>
+      </c>
+      <c r="F248" s="53" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G248" s="128" t="s">
+        <v>1640</v>
+      </c>
+      <c r="H248" s="134"/>
+      <c r="I248" s="273"/>
+    </row>
+    <row r="249" spans="1:9" ht="76.5" hidden="1">
+      <c r="A249" s="561" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B249" s="562" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C249" s="78"/>
+      <c r="D249" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E249" s="124"/>
+      <c r="F249" s="53" t="s">
+        <v>1645</v>
+      </c>
+      <c r="G249" s="128" t="s">
+        <v>1646</v>
+      </c>
+      <c r="H249" s="134"/>
+      <c r="I249" s="273"/>
+    </row>
+    <row r="250" spans="1:9" ht="60.75" hidden="1">
+      <c r="A250" s="561" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B250" s="562" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C250" s="78"/>
+      <c r="D250" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E250" s="124"/>
+      <c r="F250" s="53" t="s">
+        <v>1651</v>
+      </c>
+      <c r="G250" s="128" t="s">
+        <v>1652</v>
+      </c>
+      <c r="H250" s="134"/>
+      <c r="I250" s="273"/>
+    </row>
+    <row r="251" spans="1:9" ht="76.5" hidden="1">
+      <c r="A251" s="561" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B251" s="562" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C251" s="78"/>
+      <c r="D251" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E251" s="124"/>
+      <c r="F251" s="53" t="s">
+        <v>1657</v>
+      </c>
+      <c r="G251" s="128" t="s">
+        <v>1658</v>
+      </c>
+      <c r="H251" s="134"/>
+      <c r="I251" s="273"/>
+    </row>
+    <row r="252" spans="1:9" ht="60.75" hidden="1">
+      <c r="A252" s="561" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B252" s="562" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C252" s="78"/>
+      <c r="D252" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E252" s="124"/>
+      <c r="F252" s="53" t="s">
+        <v>1657</v>
+      </c>
+      <c r="G252" s="128" t="s">
+        <v>1663</v>
+      </c>
+      <c r="H252" s="134"/>
+      <c r="I252" s="273"/>
+    </row>
+    <row r="253" spans="1:9" ht="76.5" hidden="1">
+      <c r="A253" s="561" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B253" s="562" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C253" s="78"/>
+      <c r="D253" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E253" s="124"/>
+      <c r="F253" s="53" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G253" s="128" t="s">
+        <v>1668</v>
+      </c>
+      <c r="H253" s="134"/>
+      <c r="I253" s="273"/>
+    </row>
+    <row r="254" spans="1:9" ht="60.75" hidden="1">
+      <c r="A254" s="561" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B254" s="562" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C254" s="78"/>
+      <c r="D254" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E254" s="124"/>
+      <c r="F254" s="53" t="s">
+        <v>428</v>
+      </c>
+      <c r="G254" s="128" t="s">
+        <v>1673</v>
+      </c>
+      <c r="H254" s="134"/>
+      <c r="I254" s="273"/>
+    </row>
+    <row r="255" spans="1:9" ht="396.75" hidden="1">
+      <c r="A255" s="561" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B255" s="562" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C255" s="78"/>
+      <c r="D255" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E255" s="124"/>
+      <c r="F255" s="53" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G255" s="128" t="s">
+        <v>1678</v>
+      </c>
+      <c r="H255" s="134"/>
+      <c r="I255" s="273"/>
+    </row>
+    <row r="256" spans="1:9" ht="30.75" hidden="1">
+      <c r="A256" s="561" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B256" s="562" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C256" s="78"/>
+      <c r="D256" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E256" s="124"/>
+      <c r="F256" s="53" t="s">
+        <v>428</v>
+      </c>
+      <c r="G256" s="128" t="s">
+        <v>1683</v>
+      </c>
+      <c r="H256" s="134"/>
+      <c r="I256" s="273"/>
+    </row>
+    <row r="257" spans="1:9" ht="76.5" hidden="1">
+      <c r="A257" s="584" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B257" s="585" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C257" s="145"/>
+      <c r="D257" s="146" t="s">
+        <v>173</v>
+      </c>
+      <c r="E257" s="203"/>
+      <c r="F257" s="204" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G257" s="205" t="s">
+        <v>1689</v>
+      </c>
+      <c r="H257" s="147"/>
+      <c r="I257" s="270"/>
+    </row>
+    <row r="258" spans="1:9" ht="106.5" hidden="1">
+      <c r="A258" s="623" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B258" s="623" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C258" s="145"/>
+      <c r="D258" s="318" t="s">
+        <v>173</v>
+      </c>
+      <c r="E258" s="204"/>
+      <c r="F258" s="204" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G258" s="204" t="s">
+        <v>1694</v>
+      </c>
+      <c r="H258" s="319"/>
+      <c r="I258" s="270"/>
+    </row>
+    <row r="259" spans="1:9" ht="76.5" hidden="1">
+      <c r="A259" s="621" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B259" s="621" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C259" s="258"/>
+      <c r="D259" s="298" t="s">
+        <v>173</v>
+      </c>
+      <c r="E259" s="260"/>
+      <c r="F259" s="260"/>
+      <c r="G259" s="260" t="s">
+        <v>1698</v>
+      </c>
+      <c r="H259" s="299"/>
+      <c r="I259" s="633" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" ht="45.75" hidden="1">
+      <c r="A260" s="621" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B260" s="621" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C260" s="258"/>
+      <c r="D260" s="298" t="s">
+        <v>173</v>
+      </c>
+      <c r="E260" s="260"/>
+      <c r="F260" s="260"/>
+      <c r="G260" s="337" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H260" s="299"/>
+      <c r="I260" s="633" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" ht="183" hidden="1">
+      <c r="A261" s="621" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B261" s="621" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C261" s="258"/>
+      <c r="D261" s="298" t="s">
+        <v>173</v>
+      </c>
+      <c r="E261" s="260"/>
+      <c r="F261" s="260"/>
+      <c r="G261" s="260" t="s">
+        <v>449</v>
+      </c>
+      <c r="H261" s="299"/>
+      <c r="I261" s="633" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" hidden="1">
+      <c r="A262" s="617" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B262" s="617" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C262" s="396"/>
+      <c r="D262" s="699"/>
+      <c r="E262" s="398"/>
+      <c r="F262" s="398"/>
+      <c r="G262" s="398"/>
+      <c r="H262" s="700"/>
+      <c r="I262" s="701" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" hidden="1">
+      <c r="A263" s="617" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B263" s="617" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C263" s="396"/>
+      <c r="D263" s="699"/>
+      <c r="E263" s="398"/>
+      <c r="F263" s="398"/>
+      <c r="G263" s="398"/>
+      <c r="H263" s="700"/>
+      <c r="I263" s="701" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" hidden="1">
+      <c r="A264" s="617" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B264" s="617" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C264" s="396"/>
+      <c r="D264" s="699"/>
+      <c r="E264" s="398"/>
+      <c r="F264" s="398"/>
+      <c r="G264" s="398"/>
+      <c r="H264" s="700"/>
+      <c r="I264" s="701" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" ht="183" hidden="1">
+      <c r="A265" s="687" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B265" s="687" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C265" s="325"/>
+      <c r="D265" s="690" t="s">
+        <v>173</v>
+      </c>
+      <c r="E265" s="233"/>
+      <c r="F265" s="233"/>
+      <c r="G265" s="233" t="s">
+        <v>449</v>
+      </c>
+      <c r="H265" s="691"/>
+      <c r="I265" s="635" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" ht="76.5" hidden="1">
+      <c r="A266" s="557" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B266" s="558" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C266" s="118"/>
+      <c r="D266" s="131" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E266" s="149"/>
+      <c r="F266" s="58"/>
+      <c r="G266" s="169" t="s">
+        <v>1721</v>
+      </c>
+      <c r="H266" s="133"/>
+      <c r="I266" s="272"/>
+    </row>
+    <row r="267" spans="1:9" ht="30.75" hidden="1">
+      <c r="A267" s="561" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B267" s="562" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C267" s="78"/>
+      <c r="D267" s="132" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E267" s="124"/>
+      <c r="F267" s="53"/>
+      <c r="G267" s="128" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H267" s="134"/>
+      <c r="I267" s="273"/>
+    </row>
+    <row r="268" spans="1:9" ht="30.75" hidden="1">
+      <c r="A268" s="561" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B268" s="562" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C268" s="78"/>
+      <c r="D268" s="132" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E268" s="124"/>
+      <c r="F268" s="53"/>
+      <c r="G268" s="128" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H268" s="134"/>
+      <c r="I268" s="273"/>
+    </row>
+    <row r="269" spans="1:9" ht="30.75" hidden="1">
+      <c r="A269" s="561" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B269" s="562" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C269" s="78"/>
+      <c r="D269" s="132" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E269" s="124"/>
+      <c r="F269" s="53"/>
+      <c r="G269" s="128" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H269" s="134"/>
+      <c r="I269" s="273"/>
+    </row>
+    <row r="270" spans="1:9" ht="30.75" hidden="1">
+      <c r="A270" s="568" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B270" s="569" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C270" s="151"/>
+      <c r="D270" s="152" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E270" s="162"/>
+      <c r="F270" s="57"/>
+      <c r="G270" s="168" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H270" s="164"/>
+      <c r="I270" s="275"/>
+    </row>
+    <row r="271" spans="1:9" ht="30.75" hidden="1">
+      <c r="A271" s="581" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B271" s="558" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C271" s="118"/>
+      <c r="D271" s="131" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E271" s="149"/>
+      <c r="F271" s="58"/>
+      <c r="G271" s="169" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H271" s="133"/>
+      <c r="I271" s="272"/>
+    </row>
+    <row r="272" spans="1:9" ht="30.75" hidden="1">
+      <c r="A272" s="582" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B272" s="562" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C272" s="78"/>
+      <c r="D272" s="132" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E272" s="124"/>
+      <c r="F272" s="53"/>
+      <c r="G272" s="128" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H272" s="134"/>
+      <c r="I272" s="273"/>
+    </row>
+    <row r="273" spans="1:9" ht="30.75" hidden="1">
+      <c r="A273" s="582" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B273" s="562" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C273" s="78"/>
+      <c r="D273" s="132" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E273" s="124"/>
+      <c r="F273" s="53"/>
+      <c r="G273" s="128" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H273" s="134"/>
+      <c r="I273" s="273"/>
+    </row>
+    <row r="274" spans="1:9" ht="30.75" hidden="1">
+      <c r="A274" s="582" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B274" s="562" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C274" s="78"/>
+      <c r="D274" s="132" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E274" s="124"/>
+      <c r="F274" s="53"/>
+      <c r="G274" s="128" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H274" s="134"/>
+      <c r="I274" s="273"/>
+    </row>
+    <row r="275" spans="1:9" ht="30.75" hidden="1">
+      <c r="A275" s="583" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B275" s="569" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C275" s="151"/>
+      <c r="D275" s="152" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E275" s="162"/>
+      <c r="F275" s="57"/>
+      <c r="G275" s="168" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H275" s="164"/>
+      <c r="I275" s="275"/>
+    </row>
+    <row r="276" spans="1:9" ht="30.75" hidden="1">
+      <c r="A276" s="581" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B276" s="558" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C276" s="118"/>
+      <c r="D276" s="131" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E276" s="149"/>
+      <c r="F276" s="58"/>
+      <c r="G276" s="169" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H276" s="133"/>
+      <c r="I276" s="272"/>
+    </row>
+    <row r="277" spans="1:9" ht="30.75" hidden="1">
+      <c r="A277" s="582" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B277" s="562" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C277" s="78"/>
+      <c r="D277" s="132" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E277" s="124"/>
+      <c r="F277" s="53"/>
+      <c r="G277" s="128" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H277" s="134"/>
+      <c r="I277" s="273"/>
+    </row>
+    <row r="278" spans="1:9" ht="30.75" hidden="1">
+      <c r="A278" s="582" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B278" s="562" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C278" s="78"/>
+      <c r="D278" s="132" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E278" s="124"/>
+      <c r="F278" s="53"/>
+      <c r="G278" s="128" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H278" s="134"/>
+      <c r="I278" s="273"/>
+    </row>
+    <row r="279" spans="1:9" ht="30.75" hidden="1">
+      <c r="A279" s="582" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B279" s="562" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C279" s="78"/>
+      <c r="D279" s="132" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E279" s="124"/>
+      <c r="F279" s="53"/>
+      <c r="G279" s="128" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H279" s="134"/>
+      <c r="I279" s="273"/>
+    </row>
+    <row r="280" spans="1:9" ht="30.75" hidden="1">
+      <c r="A280" s="583" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B280" s="569" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C280" s="151"/>
+      <c r="D280" s="152" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E280" s="191"/>
+      <c r="F280" s="192"/>
+      <c r="G280" s="193" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H280" s="164"/>
+      <c r="I280" s="275"/>
+    </row>
+    <row r="281" spans="1:9" ht="30.75" hidden="1">
+      <c r="A281" s="581" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B281" s="558" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C281" s="118"/>
+      <c r="D281" s="131" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E281" s="194"/>
+      <c r="F281" s="195"/>
+      <c r="G281" s="196" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H281" s="133"/>
+      <c r="I281" s="272"/>
+    </row>
+    <row r="282" spans="1:9" ht="30.75" hidden="1">
+      <c r="A282" s="582" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B282" s="562" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C282" s="78"/>
+      <c r="D282" s="132" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E282" s="129"/>
+      <c r="F282" s="54"/>
+      <c r="G282" s="130" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H282" s="134"/>
+      <c r="I282" s="273"/>
+    </row>
+    <row r="283" spans="1:9" ht="30.75" hidden="1">
+      <c r="A283" s="582" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B283" s="562" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C283" s="78"/>
+      <c r="D283" s="132" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E283" s="129"/>
+      <c r="F283" s="54"/>
+      <c r="G283" s="130" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H283" s="134"/>
+      <c r="I283" s="273"/>
+    </row>
+    <row r="284" spans="1:9" ht="30.75" hidden="1">
+      <c r="A284" s="582" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B284" s="562" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C284" s="78"/>
+      <c r="D284" s="132" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E284" s="129"/>
+      <c r="F284" s="54"/>
+      <c r="G284" s="130" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H284" s="134"/>
+      <c r="I284" s="273"/>
+    </row>
+    <row r="285" spans="1:9" ht="30.75" hidden="1">
+      <c r="A285" s="583" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B285" s="569" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C285" s="151"/>
+      <c r="D285" s="152" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E285" s="162"/>
+      <c r="F285" s="57"/>
+      <c r="G285" s="168" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H285" s="164"/>
+      <c r="I285" s="275"/>
+    </row>
+    <row r="286" spans="1:9" ht="30.75" hidden="1">
+      <c r="A286" s="581" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B286" s="558" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C286" s="118"/>
+      <c r="D286" s="131" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E286" s="149"/>
+      <c r="F286" s="58"/>
+      <c r="G286" s="169" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H286" s="133"/>
+      <c r="I286" s="272"/>
+    </row>
+    <row r="287" spans="1:9" ht="30.75" hidden="1">
+      <c r="A287" s="582" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B287" s="562" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C287" s="78"/>
+      <c r="D287" s="132" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E287" s="124"/>
+      <c r="F287" s="53"/>
+      <c r="G287" s="128" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H287" s="134"/>
+      <c r="I287" s="273"/>
+    </row>
+    <row r="288" spans="1:9" ht="30.75" hidden="1">
+      <c r="A288" s="583" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B288" s="569" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C288" s="151"/>
+      <c r="D288" s="152" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E288" s="191"/>
+      <c r="F288" s="192"/>
+      <c r="G288" s="193" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H288" s="164"/>
+      <c r="I288" s="275"/>
+    </row>
+    <row r="289" spans="1:9" ht="30.75" hidden="1">
+      <c r="A289" s="581" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B289" s="558" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C289" s="118"/>
+      <c r="D289" s="131" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E289" s="194"/>
+      <c r="F289" s="195"/>
+      <c r="G289" s="196" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H289" s="133"/>
+      <c r="I289" s="272"/>
+    </row>
+    <row r="290" spans="1:9" ht="30.75" hidden="1">
+      <c r="A290" s="582" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B290" s="562" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C290" s="78"/>
+      <c r="D290" s="132" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E290" s="129"/>
+      <c r="F290" s="54"/>
+      <c r="G290" s="130" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H290" s="134"/>
+      <c r="I290" s="273"/>
+    </row>
+    <row r="291" spans="1:9" ht="30.75" hidden="1">
+      <c r="A291" s="582" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B291" s="562" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C291" s="78"/>
+      <c r="D291" s="132" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E291" s="129"/>
+      <c r="F291" s="54"/>
+      <c r="G291" s="130" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H291" s="134"/>
+      <c r="I291" s="273"/>
+    </row>
+    <row r="292" spans="1:9" ht="30.75" hidden="1">
+      <c r="A292" s="583" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B292" s="569" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C292" s="151"/>
+      <c r="D292" s="152" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E292" s="162"/>
+      <c r="F292" s="57"/>
+      <c r="G292" s="168" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H292" s="164"/>
+      <c r="I292" s="275"/>
+    </row>
+    <row r="293" spans="1:9" ht="152.25" hidden="1">
+      <c r="A293" s="557" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B293" s="558" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C293" s="118"/>
+      <c r="D293" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="E293" s="149" t="s">
+        <v>1827</v>
+      </c>
+      <c r="F293" s="58" t="s">
+        <v>1828</v>
+      </c>
+      <c r="G293" s="169" t="s">
+        <v>1829</v>
+      </c>
+      <c r="H293" s="133"/>
+      <c r="I293" s="272"/>
+    </row>
+    <row r="294" spans="1:9" ht="121.5" hidden="1">
+      <c r="A294" s="561" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B294" s="562" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C294" s="78"/>
+      <c r="D294" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="E294" s="124" t="s">
+        <v>1834</v>
+      </c>
+      <c r="F294" s="53" t="s">
+        <v>1835</v>
+      </c>
+      <c r="G294" s="128" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H294" s="134"/>
+      <c r="I294" s="273"/>
+    </row>
+    <row r="295" spans="1:9" ht="91.5" hidden="1">
+      <c r="A295" s="561" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B295" s="562" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C295" s="78"/>
+      <c r="D295" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="E295" s="124" t="s">
+        <v>1842</v>
+      </c>
+      <c r="F295" s="53" t="s">
+        <v>1843</v>
+      </c>
+      <c r="G295" s="128" t="s">
+        <v>1844</v>
+      </c>
+      <c r="H295" s="134"/>
+      <c r="I295" s="273"/>
+    </row>
+    <row r="296" spans="1:9" ht="152.25" hidden="1">
+      <c r="A296" s="561" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B296" s="562" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C296" s="78"/>
+      <c r="D296" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="E296" s="124" t="s">
+        <v>1849</v>
+      </c>
+      <c r="F296" s="53" t="s">
+        <v>1850</v>
+      </c>
+      <c r="G296" s="128" t="s">
+        <v>1851</v>
+      </c>
+      <c r="H296" s="134"/>
+      <c r="I296" s="273"/>
+    </row>
+    <row r="297" spans="1:9" ht="152.25" hidden="1">
+      <c r="A297" s="595" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B297" s="596" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C297" s="258"/>
+      <c r="D297" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="E297" s="259"/>
+      <c r="F297" s="260"/>
+      <c r="G297" s="340" t="s">
+        <v>1854</v>
+      </c>
+      <c r="H297" s="262"/>
+      <c r="I297" s="633" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" ht="30.75" hidden="1">
+      <c r="A298" s="561" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B298" s="562" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C298" s="78"/>
+      <c r="D298" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="E298" s="124" t="s">
+        <v>1859</v>
+      </c>
+      <c r="F298" s="53" t="s">
+        <v>1860</v>
+      </c>
+      <c r="G298" s="128" t="s">
+        <v>1861</v>
+      </c>
+      <c r="H298" s="134"/>
+      <c r="I298" s="273"/>
+    </row>
+    <row r="299" spans="1:9" ht="30.75" hidden="1">
+      <c r="A299" s="561" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B299" s="562" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C299" s="78"/>
+      <c r="D299" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="E299" s="124" t="s">
+        <v>1866</v>
+      </c>
+      <c r="F299" s="53" t="s">
+        <v>1867</v>
+      </c>
+      <c r="G299" s="128" t="s">
+        <v>1868</v>
+      </c>
+      <c r="H299" s="134"/>
+      <c r="I299" s="273"/>
+    </row>
+    <row r="300" spans="1:9" ht="106.5" hidden="1">
+      <c r="A300" s="568" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B300" s="569" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C300" s="151"/>
+      <c r="D300" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="E300" s="162" t="s">
+        <v>1873</v>
+      </c>
+      <c r="F300" s="57" t="s">
+        <v>1874</v>
+      </c>
+      <c r="G300" s="168" t="s">
+        <v>1875</v>
+      </c>
+      <c r="H300" s="164"/>
+      <c r="I300" s="275"/>
+    </row>
+    <row r="301" spans="1:9" ht="121.5" hidden="1">
+      <c r="A301" s="557" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B301" s="558" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C301" s="118"/>
+      <c r="D301" s="152" t="s">
+        <v>62</v>
+      </c>
+      <c r="E301" s="149" t="s">
+        <v>633</v>
+      </c>
+      <c r="F301" s="58" t="s">
+        <v>633</v>
+      </c>
+      <c r="G301" s="169" t="s">
+        <v>1881</v>
+      </c>
+      <c r="H301" s="133"/>
+      <c r="I301" s="272"/>
+    </row>
+    <row r="302" spans="1:9" ht="30.75" hidden="1">
+      <c r="A302" s="561" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B302" s="562" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C302" s="78"/>
+      <c r="D302" s="152" t="s">
+        <v>62</v>
+      </c>
+      <c r="E302" s="149" t="s">
+        <v>1885</v>
+      </c>
+      <c r="F302" s="58" t="s">
+        <v>1886</v>
+      </c>
+      <c r="G302" s="128" t="s">
+        <v>1887</v>
+      </c>
+      <c r="H302" s="134"/>
+      <c r="I302" s="273"/>
+    </row>
+    <row r="303" spans="1:9" ht="30.75" hidden="1">
+      <c r="A303" s="575" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B303" s="576" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C303" s="78"/>
+      <c r="D303" s="720"/>
+      <c r="E303" s="721"/>
+      <c r="F303" s="722"/>
+      <c r="G303" s="656"/>
+      <c r="H303" s="386"/>
+      <c r="I303" s="387" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" ht="106.5" hidden="1">
+      <c r="A304" s="561" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B304" s="562" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C304" s="78"/>
+      <c r="D304" s="152" t="s">
+        <v>62</v>
+      </c>
+      <c r="E304" s="124" t="s">
+        <v>633</v>
+      </c>
+      <c r="F304" s="124" t="s">
+        <v>633</v>
+      </c>
+      <c r="G304" s="128" t="s">
+        <v>1896</v>
+      </c>
+      <c r="H304" s="134"/>
+      <c r="I304" s="273"/>
+    </row>
+    <row r="305" spans="1:9" ht="76.5" hidden="1">
+      <c r="A305" s="563" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B305" s="564" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C305" s="213"/>
+      <c r="D305" s="152" t="s">
+        <v>62</v>
+      </c>
+      <c r="E305" s="244" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F305" s="245" t="s">
+        <v>1901</v>
+      </c>
+      <c r="G305" s="246" t="s">
+        <v>1902</v>
+      </c>
+      <c r="H305" s="218"/>
+      <c r="I305" s="274"/>
+    </row>
+    <row r="306" spans="1:9" ht="198" hidden="1">
+      <c r="A306" s="561" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B306" s="562" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C306" s="78"/>
+      <c r="D306" s="152" t="s">
+        <v>62</v>
+      </c>
+      <c r="E306" s="124" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F306" s="53" t="s">
+        <v>1901</v>
+      </c>
+      <c r="G306" s="128" t="s">
+        <v>1907</v>
+      </c>
+      <c r="H306" s="134"/>
+      <c r="I306" s="273"/>
+    </row>
+    <row r="307" spans="1:9" ht="121.5" hidden="1">
+      <c r="A307" s="561" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B307" s="562" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C307" s="78"/>
+      <c r="D307" s="152" t="s">
+        <v>62</v>
+      </c>
+      <c r="E307" s="124" t="s">
+        <v>1912</v>
+      </c>
+      <c r="F307" s="124" t="s">
+        <v>1913</v>
+      </c>
+      <c r="G307" s="128" t="s">
+        <v>1914</v>
+      </c>
+      <c r="H307" s="134"/>
+      <c r="I307" s="273"/>
+    </row>
+    <row r="308" spans="1:9" ht="213" hidden="1">
+      <c r="A308" s="561" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B308" s="562" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C308" s="78"/>
+      <c r="D308" s="152" t="s">
+        <v>62</v>
+      </c>
+      <c r="E308" s="124" t="s">
+        <v>1920</v>
+      </c>
+      <c r="F308" s="53" t="s">
+        <v>1921</v>
+      </c>
+      <c r="G308" s="128" t="s">
+        <v>1922</v>
+      </c>
+      <c r="H308" s="134"/>
+      <c r="I308" s="273"/>
+    </row>
+    <row r="309" spans="1:9" ht="45.75" hidden="1">
+      <c r="A309" s="568" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B309" s="569" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C309" s="151"/>
+      <c r="D309" s="152" t="s">
+        <v>62</v>
+      </c>
+      <c r="E309" s="162" t="s">
+        <v>633</v>
+      </c>
+      <c r="F309" s="57" t="s">
+        <v>633</v>
+      </c>
+      <c r="G309" s="168" t="s">
+        <v>1928</v>
+      </c>
+      <c r="H309" s="164"/>
+      <c r="I309" s="275"/>
+    </row>
+    <row r="310" spans="1:9" ht="45.75" hidden="1">
+      <c r="A310" s="557" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B310" s="558" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C310" s="118"/>
+      <c r="D310" s="131" t="s">
+        <v>173</v>
+      </c>
+      <c r="E310" s="149"/>
+      <c r="F310" s="58"/>
+      <c r="G310" s="169" t="s">
+        <v>1935</v>
+      </c>
+      <c r="H310" s="133"/>
+      <c r="I310" s="272"/>
+    </row>
+    <row r="311" spans="1:9" ht="45.75" hidden="1">
+      <c r="A311" s="561" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B311" s="562" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C311" s="78"/>
+      <c r="D311" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E311" s="124"/>
+      <c r="F311" s="53"/>
+      <c r="G311" s="128" t="s">
+        <v>1938</v>
+      </c>
+      <c r="H311" s="134"/>
+      <c r="I311" s="273"/>
+    </row>
+    <row r="312" spans="1:9" hidden="1">
+      <c r="A312" s="561" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B312" s="562" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C312" s="78"/>
+      <c r="D312" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E312" s="124"/>
+      <c r="F312" s="53"/>
+      <c r="G312" s="128" t="s">
+        <v>176</v>
+      </c>
+      <c r="H312" s="134"/>
+      <c r="I312" s="273"/>
+    </row>
+    <row r="313" spans="1:9" ht="91.5" hidden="1">
+      <c r="A313" s="561" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B313" s="562" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C313" s="78"/>
+      <c r="D313" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E313" s="124"/>
+      <c r="F313" s="53"/>
+      <c r="G313" s="128" t="s">
+        <v>1946</v>
+      </c>
+      <c r="H313" s="134"/>
+      <c r="I313" s="273"/>
+    </row>
+    <row r="314" spans="1:9" ht="45.75" hidden="1">
+      <c r="A314" s="561" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B314" s="562" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C314" s="78"/>
+      <c r="D314" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E314" s="124"/>
+      <c r="F314" s="53"/>
+      <c r="G314" s="128" t="s">
+        <v>1951</v>
+      </c>
+      <c r="H314" s="134"/>
+      <c r="I314" s="273"/>
+    </row>
+    <row r="315" spans="1:9" ht="229.5" hidden="1">
+      <c r="A315" s="561" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B315" s="562" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C315" s="78"/>
+      <c r="D315" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E315" s="124"/>
+      <c r="F315" s="53"/>
+      <c r="G315" s="128" t="s">
+        <v>1956</v>
+      </c>
+      <c r="H315" s="134"/>
+      <c r="I315" s="273"/>
+    </row>
+    <row r="316" spans="1:9" ht="45.75" hidden="1">
+      <c r="A316" s="561" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B316" s="562" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C316" s="78"/>
+      <c r="D316" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E316" s="124"/>
+      <c r="F316" s="53"/>
+      <c r="G316" s="128" t="s">
+        <v>1961</v>
+      </c>
+      <c r="H316" s="134"/>
+      <c r="I316" s="273"/>
+    </row>
+    <row r="317" spans="1:9" ht="91.5" hidden="1">
+      <c r="A317" s="561" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B317" s="562" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C317" s="78"/>
+      <c r="D317" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E317" s="124"/>
+      <c r="F317" s="53"/>
+      <c r="G317" s="128" t="s">
+        <v>1966</v>
+      </c>
+      <c r="H317" s="134"/>
+      <c r="I317" s="273"/>
+    </row>
+    <row r="318" spans="1:9" ht="91.5" hidden="1">
+      <c r="A318" s="561" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B318" s="562" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C318" s="78"/>
+      <c r="D318" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E318" s="124"/>
+      <c r="F318" s="53"/>
+      <c r="G318" s="128" t="s">
+        <v>1971</v>
+      </c>
+      <c r="H318" s="134"/>
+      <c r="I318" s="273"/>
+    </row>
+    <row r="319" spans="1:9" ht="91.5" hidden="1">
+      <c r="A319" s="561" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B319" s="562" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C319" s="78"/>
+      <c r="D319" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E319" s="124"/>
+      <c r="F319" s="53"/>
+      <c r="G319" s="128" t="s">
+        <v>1976</v>
+      </c>
+      <c r="H319" s="134"/>
+      <c r="I319" s="273"/>
+    </row>
+    <row r="320" spans="1:9" ht="76.5" hidden="1">
+      <c r="A320" s="561" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B320" s="562" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C320" s="78"/>
+      <c r="D320" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E320" s="124"/>
+      <c r="F320" s="53"/>
+      <c r="G320" s="128" t="s">
+        <v>1981</v>
+      </c>
+      <c r="H320" s="134"/>
+      <c r="I320" s="273"/>
+    </row>
+    <row r="321" spans="1:9" ht="106.5" hidden="1">
+      <c r="A321" s="561" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B321" s="562" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C321" s="78"/>
+      <c r="D321" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E321" s="124"/>
+      <c r="F321" s="53"/>
+      <c r="G321" s="128" t="s">
+        <v>1985</v>
+      </c>
+      <c r="H321" s="134"/>
+      <c r="I321" s="273"/>
+    </row>
+    <row r="322" spans="1:9" ht="106.5" hidden="1">
+      <c r="A322" s="561" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B322" s="562" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C322" s="78"/>
+      <c r="D322" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E322" s="124"/>
+      <c r="F322" s="53"/>
+      <c r="G322" s="128" t="s">
+        <v>1990</v>
+      </c>
+      <c r="H322" s="134"/>
+      <c r="I322" s="273"/>
+    </row>
+    <row r="323" spans="1:9" ht="121.5" hidden="1">
+      <c r="A323" s="561" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B323" s="562" t="s">
+        <v>1993</v>
+      </c>
+      <c r="C323" s="78"/>
+      <c r="D323" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E323" s="124"/>
+      <c r="F323" s="53"/>
+      <c r="G323" s="128" t="s">
+        <v>1995</v>
+      </c>
+      <c r="H323" s="134"/>
+      <c r="I323" s="273"/>
+    </row>
+    <row r="324" spans="1:9" ht="106.5" hidden="1">
+      <c r="A324" s="561" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B324" s="562" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C324" s="78"/>
+      <c r="D324" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E324" s="124"/>
+      <c r="F324" s="53"/>
+      <c r="G324" s="128" t="s">
+        <v>2000</v>
+      </c>
+      <c r="H324" s="134"/>
+      <c r="I324" s="273"/>
+    </row>
+    <row r="325" spans="1:9" ht="106.5" hidden="1">
+      <c r="A325" s="561" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B325" s="562" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C325" s="78"/>
+      <c r="D325" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E325" s="124"/>
+      <c r="F325" s="53"/>
+      <c r="G325" s="128" t="s">
+        <v>2005</v>
+      </c>
+      <c r="H325" s="134"/>
+      <c r="I325" s="273"/>
+    </row>
+    <row r="326" spans="1:9" ht="76.5" hidden="1">
+      <c r="A326" s="561" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B326" s="562" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C326" s="78"/>
+      <c r="D326" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E326" s="124"/>
+      <c r="F326" s="53"/>
+      <c r="G326" s="128" t="s">
+        <v>2010</v>
+      </c>
+      <c r="H326" s="134"/>
+      <c r="I326" s="273"/>
+    </row>
+    <row r="327" spans="1:9" ht="91.5" hidden="1">
+      <c r="A327" s="561" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B327" s="562" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C327" s="78"/>
+      <c r="D327" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E327" s="124"/>
+      <c r="F327" s="53"/>
+      <c r="G327" s="128" t="s">
+        <v>2015</v>
+      </c>
+      <c r="H327" s="134"/>
+      <c r="I327" s="273"/>
+    </row>
+    <row r="328" spans="1:9" ht="106.5" hidden="1">
+      <c r="A328" s="561" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B328" s="562" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C328" s="78"/>
+      <c r="D328" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E328" s="124"/>
+      <c r="F328" s="53"/>
+      <c r="G328" s="128" t="s">
+        <v>2020</v>
+      </c>
+      <c r="H328" s="134"/>
+      <c r="I328" s="273"/>
+    </row>
+    <row r="329" spans="1:9" ht="60.75" hidden="1">
+      <c r="A329" s="561" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B329" s="562" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C329" s="78"/>
+      <c r="D329" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E329" s="124"/>
+      <c r="F329" s="53"/>
+      <c r="G329" s="128" t="s">
+        <v>2025</v>
+      </c>
+      <c r="H329" s="134"/>
+      <c r="I329" s="273"/>
+    </row>
+    <row r="330" spans="1:9" ht="91.5" hidden="1">
+      <c r="A330" s="561" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B330" s="562" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C330" s="78"/>
+      <c r="D330" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E330" s="124"/>
+      <c r="F330" s="53"/>
+      <c r="G330" s="128" t="s">
+        <v>2030</v>
+      </c>
+      <c r="H330" s="134"/>
+      <c r="I330" s="273"/>
+    </row>
+    <row r="331" spans="1:9" ht="152.25" hidden="1">
+      <c r="A331" s="561" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B331" s="562" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C331" s="78"/>
+      <c r="D331" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E331" s="124"/>
+      <c r="F331" s="53"/>
+      <c r="G331" s="128" t="s">
+        <v>2034</v>
+      </c>
+      <c r="H331" s="134"/>
+      <c r="I331" s="273"/>
+    </row>
+    <row r="332" spans="1:9" ht="91.5" hidden="1">
+      <c r="A332" s="561" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B332" s="562" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C332" s="78"/>
+      <c r="D332" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E332" s="124"/>
+      <c r="F332" s="53"/>
+      <c r="G332" s="128" t="s">
+        <v>2039</v>
+      </c>
+      <c r="H332" s="134"/>
+      <c r="I332" s="273"/>
+    </row>
+    <row r="333" spans="1:9" ht="152.25" hidden="1">
+      <c r="A333" s="568" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B333" s="569" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C333" s="151"/>
+      <c r="D333" s="152" t="s">
+        <v>173</v>
+      </c>
+      <c r="E333" s="162"/>
+      <c r="F333" s="57"/>
+      <c r="G333" s="168" t="s">
+        <v>2043</v>
+      </c>
+      <c r="H333" s="164"/>
+      <c r="I333" s="275"/>
+    </row>
+    <row r="334" spans="1:9" ht="30.75" hidden="1">
+      <c r="A334" s="557" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B334" s="558" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C334" s="170"/>
+      <c r="D334" s="171"/>
+      <c r="E334" s="149" t="s">
+        <v>609</v>
+      </c>
+      <c r="F334" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="G334" s="169" t="s">
+        <v>122</v>
+      </c>
+      <c r="H334" s="133"/>
+      <c r="I334" s="272"/>
+    </row>
+    <row r="335" spans="1:9" ht="76.5" hidden="1">
+      <c r="A335" s="557" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B335" s="558" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C335" s="78"/>
+      <c r="D335" s="132"/>
+      <c r="E335" s="124" t="s">
+        <v>2050</v>
+      </c>
+      <c r="F335" s="124" t="s">
+        <v>2051</v>
+      </c>
+      <c r="G335" s="128" t="s">
+        <v>2052</v>
+      </c>
+      <c r="H335" s="134"/>
+      <c r="I335" s="273"/>
+    </row>
+    <row r="336" spans="1:9" ht="121.5" hidden="1">
+      <c r="A336" s="561" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B336" s="562" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C336" s="78"/>
+      <c r="D336" s="132"/>
+      <c r="E336" s="124" t="s">
+        <v>2057</v>
+      </c>
+      <c r="F336" s="53" t="s">
+        <v>428</v>
+      </c>
+      <c r="G336" s="128" t="s">
+        <v>2058</v>
+      </c>
+      <c r="H336" s="134"/>
+      <c r="I336" s="273"/>
+    </row>
+    <row r="337" spans="1:9" ht="121.5" hidden="1">
+      <c r="A337" s="561" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B337" s="562" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C337" s="78"/>
+      <c r="D337" s="132"/>
+      <c r="E337" s="124" t="s">
+        <v>2057</v>
+      </c>
+      <c r="F337" s="53" t="s">
+        <v>428</v>
+      </c>
+      <c r="G337" s="128" t="s">
+        <v>2058</v>
+      </c>
+      <c r="H337" s="134"/>
+      <c r="I337" s="273"/>
+    </row>
+    <row r="338" spans="1:9" ht="121.5" hidden="1">
+      <c r="A338" s="561" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B338" s="562" t="s">
+        <v>2064</v>
+      </c>
+      <c r="C338" s="78"/>
+      <c r="D338" s="132"/>
+      <c r="E338" s="124" t="s">
+        <v>2057</v>
+      </c>
+      <c r="F338" s="53" t="s">
+        <v>428</v>
+      </c>
+      <c r="G338" s="128" t="s">
+        <v>2058</v>
+      </c>
+      <c r="H338" s="134"/>
+      <c r="I338" s="273"/>
+    </row>
+    <row r="339" spans="1:9" ht="121.5" hidden="1">
+      <c r="A339" s="561" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B339" s="562" t="s">
+        <v>2067</v>
+      </c>
+      <c r="C339" s="78"/>
+      <c r="D339" s="132"/>
+      <c r="E339" s="124" t="s">
+        <v>2057</v>
+      </c>
+      <c r="F339" s="53" t="s">
+        <v>428</v>
+      </c>
+      <c r="G339" s="128" t="s">
+        <v>2058</v>
+      </c>
+      <c r="H339" s="134"/>
+      <c r="I339" s="273"/>
+    </row>
+    <row r="340" spans="1:9" ht="121.5" hidden="1">
+      <c r="A340" s="568" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B340" s="569" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C340" s="151"/>
+      <c r="D340" s="152"/>
+      <c r="E340" s="124" t="s">
+        <v>2057</v>
+      </c>
+      <c r="F340" s="53" t="s">
+        <v>428</v>
+      </c>
+      <c r="G340" s="168" t="s">
+        <v>2058</v>
+      </c>
+      <c r="H340" s="164"/>
+      <c r="I340" s="275"/>
+    </row>
+    <row r="341" spans="1:9" ht="30.75" hidden="1">
+      <c r="A341" s="557" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B341" s="558" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C341" s="118"/>
+      <c r="D341" s="152" t="s">
+        <v>375</v>
+      </c>
+      <c r="E341" s="149" t="s">
+        <v>2076</v>
+      </c>
+      <c r="F341" s="58" t="s">
+        <v>2077</v>
+      </c>
+      <c r="G341" s="169" t="s">
+        <v>2078</v>
+      </c>
+      <c r="H341" s="133"/>
+      <c r="I341" s="272"/>
+    </row>
+    <row r="342" spans="1:9" ht="30.75" hidden="1">
+      <c r="A342" s="561" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B342" s="562" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C342" s="78"/>
+      <c r="D342" s="152" t="s">
+        <v>375</v>
+      </c>
+      <c r="E342" s="124" t="s">
+        <v>2083</v>
+      </c>
+      <c r="F342" s="53" t="s">
+        <v>2084</v>
+      </c>
+      <c r="G342" s="128" t="s">
+        <v>2085</v>
+      </c>
+      <c r="H342" s="134"/>
+      <c r="I342" s="273"/>
+    </row>
+    <row r="343" spans="1:9" ht="30.75" hidden="1">
+      <c r="A343" s="561" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B343" s="562" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C343" s="78"/>
+      <c r="D343" s="152" t="s">
+        <v>375</v>
+      </c>
+      <c r="E343" s="124" t="s">
+        <v>2089</v>
+      </c>
+      <c r="F343" s="53" t="s">
+        <v>2090</v>
+      </c>
+      <c r="G343" s="128" t="s">
+        <v>2091</v>
+      </c>
+      <c r="H343" s="134"/>
+      <c r="I343" s="273"/>
+    </row>
+    <row r="344" spans="1:9" ht="30.75" hidden="1">
+      <c r="A344" s="561" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B344" s="562" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C344" s="78"/>
+      <c r="D344" s="152" t="s">
+        <v>375</v>
+      </c>
+      <c r="E344" s="124" t="s">
+        <v>2095</v>
+      </c>
+      <c r="F344" s="53" t="s">
+        <v>2096</v>
+      </c>
+      <c r="G344" s="128" t="s">
+        <v>2097</v>
+      </c>
+      <c r="H344" s="134"/>
+      <c r="I344" s="273"/>
+    </row>
+    <row r="345" spans="1:9" ht="91.5" hidden="1">
+      <c r="A345" s="561" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B345" s="585" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C345" s="78"/>
+      <c r="D345" s="152" t="s">
+        <v>375</v>
+      </c>
+      <c r="E345" s="124" t="s">
+        <v>2101</v>
+      </c>
+      <c r="F345" s="53" t="s">
+        <v>633</v>
+      </c>
+      <c r="G345" s="128" t="s">
+        <v>2102</v>
+      </c>
+      <c r="H345" s="134"/>
+      <c r="I345" s="273"/>
+    </row>
+    <row r="346" spans="1:9" ht="91.5" hidden="1">
+      <c r="A346" s="568" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B346" s="627" t="s">
+        <v>2104</v>
+      </c>
+      <c r="C346" s="151"/>
+      <c r="D346" s="152" t="s">
+        <v>375</v>
+      </c>
+      <c r="E346" s="124" t="s">
+        <v>2106</v>
+      </c>
+      <c r="F346" s="57" t="s">
+        <v>633</v>
+      </c>
+      <c r="G346" s="168" t="s">
+        <v>2107</v>
+      </c>
+      <c r="H346" s="164"/>
+      <c r="I346" s="275"/>
+    </row>
+    <row r="347" spans="1:9" hidden="1">
+      <c r="A347" s="557" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B347" s="757" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C347" s="118"/>
+      <c r="D347" s="131"/>
+      <c r="E347" s="149" t="s">
+        <v>633</v>
+      </c>
+      <c r="F347" s="58" t="s">
+        <v>633</v>
+      </c>
+      <c r="G347" s="169" t="s">
+        <v>122</v>
+      </c>
+      <c r="H347" s="133"/>
+      <c r="I347" s="272"/>
+    </row>
+    <row r="348" spans="1:9" ht="30.75" hidden="1">
+      <c r="A348" s="561" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B348" s="562" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C348" s="78"/>
+      <c r="D348" s="132"/>
+      <c r="E348" s="124" t="s">
+        <v>2115</v>
+      </c>
+      <c r="F348" s="53" t="s">
+        <v>2116</v>
+      </c>
+      <c r="G348" s="128" t="s">
+        <v>122</v>
+      </c>
+      <c r="H348" s="134"/>
+      <c r="I348" s="273"/>
+    </row>
+    <row r="349" spans="1:9" hidden="1">
+      <c r="A349" s="561" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B349" s="562" t="s">
+        <v>2118</v>
+      </c>
+      <c r="C349" s="78"/>
+      <c r="D349" s="132"/>
+      <c r="E349" s="124"/>
+      <c r="F349" s="53"/>
+      <c r="G349" s="128" t="s">
+        <v>2120</v>
+      </c>
+      <c r="H349" s="134"/>
+      <c r="I349" s="273"/>
+    </row>
+    <row r="350" spans="1:9" hidden="1">
+      <c r="A350" s="561" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B350" s="562" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C350" s="78"/>
+      <c r="D350" s="132"/>
+      <c r="E350" s="124"/>
+      <c r="F350" s="53"/>
+      <c r="G350" s="128" t="s">
+        <v>2120</v>
+      </c>
+      <c r="H350" s="134"/>
+      <c r="I350" s="273"/>
+    </row>
+    <row r="351" spans="1:9" hidden="1">
+      <c r="A351" s="561" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B351" s="562" t="s">
+        <v>2124</v>
+      </c>
+      <c r="C351" s="78"/>
+      <c r="D351" s="132"/>
+      <c r="E351" s="124"/>
+      <c r="F351" s="53"/>
+      <c r="G351" s="128" t="s">
+        <v>2120</v>
+      </c>
+      <c r="H351" s="134"/>
+      <c r="I351" s="273"/>
+    </row>
+    <row r="352" spans="1:9" hidden="1">
+      <c r="A352" s="584" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B352" s="585" t="s">
+        <v>2126</v>
+      </c>
+      <c r="C352" s="145"/>
+      <c r="D352" s="146"/>
+      <c r="E352" s="203"/>
+      <c r="F352" s="204"/>
+      <c r="G352" s="205" t="s">
+        <v>2120</v>
+      </c>
+      <c r="H352" s="147"/>
+      <c r="I352" s="270"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I352" xr:uid="{FB8A9FBB-8097-4275-8311-4F3AE1EC77A7}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="cinp_cin_plan_end"/>
+        <filter val="cinp_cin_plan_id"/>
+        <filter val="cinp_cin_plan_start"/>
+        <filter val="cinp_cin_plan_team"/>
+        <filter val="cinp_cin_plan_worker_id"/>
+        <filter val="cinp_person_id"/>
+        <filter val="cinp_referral_id"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="E63:F63">
+    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="y">
+      <formula>NOT(ISERROR(SEARCH("y",E63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62 H62:I63">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="y">
+      <formula>NOT(ISERROR(SEARCH("y",F62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="y">
+      <formula>NOT(ISERROR(SEARCH("y",E62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G63">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="y">
+      <formula>NOT(ISERROR(SEARCH("y",G63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I218:I226">
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A211 A1 A3:A15 A17:A45 A47:A60 A193:A199 A163:A190 A201:A209 A213:A352 A62:A161">
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A210">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="y">
+      <formula>NOT(ISERROR(SEARCH("y",A210)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62:B63">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="y">
+      <formula>NOT(ISERROR(SEARCH("y",B62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B347:B352 B1 B9:B15 B17:B45 B47:B60 B62:B146 B193:B199 B163:B190 B201:B211 B213:B340 B148:B161">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B341:B346">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0D22CC-6F91-4AD4-BB9A-4A84FC588AB3}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -40725,7 +48752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F127DE7-7BF1-4B38-A1B8-A518D5A30431}">
   <dimension ref="A1:D334"/>
   <sheetViews>
@@ -45374,7 +53401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C61F20B-4D31-4FF7-888C-89E078877897}">
   <dimension ref="A1:D322"/>
   <sheetViews>
